--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail14 Features.xlsx
@@ -6077,7 +6077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,29 +6088,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6131,115 +6129,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6256,72 +6244,66 @@
         <v>1.958292676960126e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5468614485364072</v>
+        <v>6.844758051518851e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.046040239327266</v>
+        <v>6.169352223188509e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.844758051518851e-07</v>
+        <v>0.02572320039671818</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.169352223188509e-06</v>
+        <v>0.1416718915097475</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02572320039671818</v>
+        <v>0.02072646228583697</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1416718915097475</v>
+        <v>1.730785944824211</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02072646228583697</v>
+        <v>1.572042245707359</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.657211432552306</v>
+        <v>3.513323471133132</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.572042245707359</v>
+        <v>2.409185745528678e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.513323471133132</v>
+        <v>21808162.05222864</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.409185745528678e-14</v>
+        <v>5.230798721953826e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>21808162.05222864</v>
+        <v>11.45798940237748</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.230798721953826e-06</v>
+        <v>0.0001121284728238496</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.45798940237748</v>
+        <v>8.821086148827044</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001121284728238496</v>
+        <v>1.669804516546231</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.821086148827044</v>
+        <v>0.00872489148559308</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.669804516546231</v>
+        <v>3.185550804717991</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00872489148559308</v>
+        <v>0.9557510968757847</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.185550804717991</v>
+        <v>1.751727860575105</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9557510968757847</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.751727860575105</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2420129644728829</v>
       </c>
     </row>
@@ -6336,72 +6318,66 @@
         <v>2.042943958351476e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6030264120533211</v>
+        <v>7.519303642535551e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9385958581625893</v>
+        <v>6.174917311126561e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.519303642535551e-07</v>
+        <v>0.02999817199653937</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.174917311126561e-06</v>
+        <v>0.1413196518864813</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02999817199653937</v>
+        <v>0.0208635041587436</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1413196518864813</v>
+        <v>1.703667805481891</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0208635041587436</v>
+        <v>1.591515921323956</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.62683801997028</v>
+        <v>3.580994986063289</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.591515921323956</v>
+        <v>2.242037822575274e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.580994986063289</v>
+        <v>23527346.59459763</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.242037822575274e-14</v>
+        <v>4.813769052251007e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>23527346.59459763</v>
+        <v>12.41048732866427</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.813769052251007e-06</v>
+        <v>0.0001113382917666565</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>12.41048732866427</v>
+        <v>7.441159731011719</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001113382917666565</v>
+        <v>1.962250191777694</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.441159731011719</v>
+        <v>0.006164896759232063</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.962250191777694</v>
+        <v>3.287883161689072</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006164896759232063</v>
+        <v>0.9548856870793523</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.287883161689072</v>
+        <v>1.751746428823953</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9548856870793523</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.751746428823953</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2414264965190598</v>
       </c>
     </row>
@@ -6416,72 +6392,66 @@
         <v>2.149148071083585e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6811243763864029</v>
+        <v>8.194080562134571e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7565622403559318</v>
+        <v>6.181585396992199e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.194080562134571e-07</v>
+        <v>0.03343840256366042</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.181585396992199e-06</v>
+        <v>0.1392058209011194</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03343840256366042</v>
+        <v>0.02049056491814064</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1392058209011194</v>
+        <v>1.710844931282894</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02049056491814064</v>
+        <v>1.759195189402298</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.635674557984609</v>
+        <v>3.696526230005886</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.759195189402298</v>
+        <v>2.104082557515113e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.696526230005886</v>
+        <v>24589845.97934784</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.104082557515113e-14</v>
+        <v>4.602192055323593e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24589845.97934784</v>
+        <v>12.7225566447651</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.602192055323593e-06</v>
+        <v>0.0001211165857011273</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.7225566447651</v>
+        <v>7.077450673479372</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001211165857011273</v>
+        <v>1.542867087043061</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.077450673479372</v>
+        <v>0.006066767085981575</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.542867087043061</v>
+        <v>3.211853026746842</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006066767085981575</v>
+        <v>0.9548276243638557</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.211853026746842</v>
+        <v>1.759983055533509</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9548276243638557</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.759983055533509</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2264075488976253</v>
       </c>
     </row>
@@ -6496,72 +6466,66 @@
         <v>2.274639750071118e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7697745757341392</v>
+        <v>8.833752917101449e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5371276644256229</v>
+        <v>6.18924933412902e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.833752917101449e-07</v>
+        <v>0.03576575668523303</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.18924933412902e-06</v>
+        <v>0.1353518442142425</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03576575668523303</v>
+        <v>0.01959495364813153</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1353518442142425</v>
+        <v>1.720995146136334</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01959495364813153</v>
+        <v>1.619221173577137</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.647778279695869</v>
+        <v>3.839218003697798</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.619221173577137</v>
+        <v>1.950584700951838e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.839218003697798</v>
+        <v>27569691.44277984</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.950584700951838e-14</v>
+        <v>4.155172861611743e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>27569691.44277984</v>
+        <v>14.82615802298242</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.155172861611743e-06</v>
+        <v>0.0001536428927212073</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.82615802298242</v>
+        <v>8.973176668927586</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001536428927212073</v>
+        <v>1.290834815354336</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.973176668927586</v>
+        <v>0.0123710029998992</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.290834815354336</v>
+        <v>2.919352874779714</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0123710029998992</v>
+        <v>0.9549470738178714</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.919352874779714</v>
+        <v>1.713265772053062</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9549470738178714</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.713265772053062</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1946064230121463</v>
       </c>
     </row>
@@ -6576,72 +6540,66 @@
         <v>2.414686243321183e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8530195186471581</v>
+        <v>9.304317940994725e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3384562924317098</v>
+        <v>6.197764574110322e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.304317940994725e-07</v>
+        <v>0.03659775682721398</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.197764574110322e-06</v>
+        <v>0.1291972523358369</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03659775682721398</v>
+        <v>0.01803017591228288</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1291972523358369</v>
+        <v>1.722186734260866</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01803017591228288</v>
+        <v>1.784023453133287</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.64947862012322</v>
+        <v>3.663227458461936</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.784023453133287</v>
+        <v>2.142508674105565e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.663227458461936</v>
+        <v>25180963.30801141</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.142508674105565e-14</v>
+        <v>4.550199902694439e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>25180963.30801141</v>
+        <v>13.58523856443127</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.550199902694439e-06</v>
+        <v>0.0001744366749118149</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.58523856443127</v>
+        <v>10.17696441530384</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001744366749118149</v>
+        <v>1.219589613843679</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.17696441530384</v>
+        <v>0.01806651190428126</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.219589613843679</v>
+        <v>2.763480262135562</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01806651190428126</v>
+        <v>0.9550995008185285</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.763480262135562</v>
+        <v>1.745721570778394</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9550995008185285</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.745721570778394</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1750427635602818</v>
       </c>
     </row>
@@ -6656,72 +6614,66 @@
         <v>2.558706760883407e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9103931382738518</v>
+        <v>9.55305432352681e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2338091323695664</v>
+        <v>6.206811337656315e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.55305432352681e-07</v>
+        <v>0.03599784834008726</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.206811337656315e-06</v>
+        <v>0.1221649653074567</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03599784834008726</v>
+        <v>0.01622000023518984</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1221649653074567</v>
+        <v>1.728036159497322</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01622000023518984</v>
+        <v>1.701456796732157</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.655770866162393</v>
+        <v>3.543023639616434</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.701456796732157</v>
+        <v>2.290352143333333e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.543023639616434</v>
+        <v>23446996.31922741</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.290352143333333e-14</v>
+        <v>4.887007366078696e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>23446996.31922741</v>
+        <v>12.59147742237127</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.887007366078696e-06</v>
+        <v>0.0001759055514745602</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.59147742237127</v>
+        <v>11.77351285788155</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001759055514745602</v>
+        <v>1.094405288473352</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.77351285788155</v>
+        <v>0.02438325444309098</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.094405288473352</v>
+        <v>2.741916845167677</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02438325444309098</v>
+        <v>0.9549611811337888</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.741916845167677</v>
+        <v>1.737529317658418</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9549611811337888</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.737529317658418</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1811359699879484</v>
       </c>
     </row>
@@ -6736,72 +6688,66 @@
         <v>2.698917100860358e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9374786856734869</v>
+        <v>9.656793482110314e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2303561198157222</v>
+        <v>6.21610712092143e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.656793482110314e-07</v>
+        <v>0.03464750176142173</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.21610712092143e-06</v>
+        <v>0.115781419350457</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03464750176142173</v>
+        <v>0.01460593622240672</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.115781419350457</v>
+        <v>1.754534404249051</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01460593622240672</v>
+        <v>1.660474142176195</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.684294726591322</v>
+        <v>3.494088194636286</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.660474142176195</v>
+        <v>2.354955120065025e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.494088194636286</v>
+        <v>22419324.65821821</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.354955120065025e-14</v>
+        <v>5.162823570678288e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>22419324.65821821</v>
+        <v>11.83661950370044</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.162823570678288e-06</v>
+        <v>0.0001745375680334047</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.83661950370044</v>
+        <v>12.74052767827232</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001745375680334047</v>
+        <v>1.059194467022678</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.74052767827232</v>
+        <v>0.02833112052584404</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.059194467022678</v>
+        <v>2.792607004106666</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02833112052584404</v>
+        <v>0.9565272546726211</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.792607004106666</v>
+        <v>1.67703420398186</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9565272546726211</v>
+        <v>26</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.67703420398186</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1941260722126003</v>
       </c>
     </row>
@@ -6816,72 +6762,66 @@
         <v>2.829707066599286e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9361169884675167</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3094165852823467</v>
+        <v>6.225471169995649e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.0330719358299361</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.225471169995649e-06</v>
+        <v>0.1104289666641828</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0330719358299361</v>
+        <v>0.01328790835921536</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1104289666641828</v>
+        <v>1.748269857362259</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01328790835921536</v>
+        <v>1.589576013750717</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.681065032595045</v>
+        <v>3.477891265909428</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.589576013750717</v>
+        <v>2.157725783163073e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.477891265909428</v>
+        <v>23851673.98686029</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.157725783163073e-14</v>
+        <v>4.828485733181855e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>23851673.98686029</v>
+        <v>12.2753527295958</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.828485733181855e-06</v>
+        <v>0.000164497519411092</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.2753527295958</v>
+        <v>12.33709591573153</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000164497519411092</v>
+        <v>1.113787165665438</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.33709591573153</v>
+        <v>0.02503716985639186</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.113787165665438</v>
+        <v>2.943986332674772</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02503716985639186</v>
+        <v>0.9562331321609873</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.943986332674772</v>
+        <v>1.700978020463664</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9562331321609873</v>
+        <v>26</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.700978020463664</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2073408214031152</v>
       </c>
     </row>
@@ -6896,72 +6836,66 @@
         <v>2.946410150234596e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9088308180088742</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4484188991991735</v>
+        <v>6.234837968094335e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03186286999536427</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.234837968094335e-06</v>
+        <v>0.1059511636139223</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03186286999536427</v>
+        <v>0.01224025599686691</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1059511636139223</v>
+        <v>1.746439031674872</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01224025599686691</v>
+        <v>1.733017496320197</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.672667023263908</v>
+        <v>3.583858962794225</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.733017496320197</v>
+        <v>1.954375340588262e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.583858962794225</v>
+        <v>26359962.2611874</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.954375340588262e-14</v>
+        <v>4.367091497016731e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>26359962.2611874</v>
+        <v>13.57993035254375</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.367091497016731e-06</v>
+        <v>0.0001533241488940214</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>13.57993035254375</v>
+        <v>10.46266327828003</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001533241488940214</v>
+        <v>1.361860591735513</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.46266327828003</v>
+        <v>0.01678398411146572</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.361860591735513</v>
+        <v>3.17698853526967</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01678398411146572</v>
+        <v>0.9569818803231155</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.17698853526967</v>
+        <v>1.707884769062233</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9569818803231155</v>
+        <v>29</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.707884769062233</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.208436302049265</v>
       </c>
     </row>
@@ -6976,72 +6910,66 @@
         <v>3.050195920330054e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8642783863198019</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6114433988694241</v>
+        <v>6.244307621120269e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03137563409739439</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.244307621120269e-06</v>
+        <v>0.101771073329009</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03137563409739439</v>
+        <v>0.011341339221146</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.101771073329009</v>
+        <v>1.752375194711603</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.011341339221146</v>
+        <v>1.845368380205644</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.679608482146528</v>
+        <v>3.564633578434954</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.845368380205644</v>
+        <v>1.97551352518289e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.564633578434954</v>
+        <v>25955906.92513638</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.97551352518289e-14</v>
+        <v>4.445456748392449e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>25955906.92513638</v>
+        <v>13.3092144759603</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.445456748392449e-06</v>
+        <v>0.0001669734897041084</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>13.3092144759603</v>
+        <v>9.212459817391304</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001669734897041084</v>
+        <v>1.727032594471566</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.212459817391304</v>
+        <v>0.01417094253980994</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.727032594471566</v>
+        <v>3.20108050986273</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01417094253980994</v>
+        <v>0.9590923621060142</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.20108050986273</v>
+        <v>1.717362834035882</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9590923621060142</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.717362834035882</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1910861926507011</v>
       </c>
     </row>
@@ -7056,72 +6984,66 @@
         <v>3.144752587361192e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8102477643298542</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7744443330224113</v>
+        <v>6.254045499977631e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03157996696336338</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.254045499977631e-06</v>
+        <v>0.09779170047892129</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03157996696336338</v>
+        <v>0.01056020267818631</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09779170047892129</v>
+        <v>1.754270966014723</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01056020267818631</v>
+        <v>1.706313415424045</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.681852909108431</v>
+        <v>3.490194428619948</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.706313415424045</v>
+        <v>2.060679986032611e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.490194428619948</v>
+        <v>24604345.18020509</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.060679986032611e-14</v>
+        <v>4.680417510072378e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>24604345.18020509</v>
+        <v>12.4748167732786</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.680417510072378e-06</v>
+        <v>0.0001610681998336853</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>12.4748167732786</v>
+        <v>10.2466223535951</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001610681998336853</v>
+        <v>1.430813338341661</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.2466223535951</v>
+        <v>0.01691107693833707</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.430813338341661</v>
+        <v>3.110474317484423</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01691107693833707</v>
+        <v>0.9599004001792111</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.110474317484423</v>
+        <v>1.724622221949826</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9599004001792111</v>
+        <v>24</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.724622221949826</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1889978514212981</v>
       </c>
     </row>
@@ -7136,72 +7058,66 @@
         <v>3.23366174508138e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7515171423205663</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9263699570255217</v>
+        <v>6.264229410020772e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03233508030233855</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.264229410020772e-06</v>
+        <v>0.09404595262398133</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03233508030233855</v>
+        <v>0.009889863563193416</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09404595262398133</v>
+        <v>1.754518504393928</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009889863563193416</v>
+        <v>1.724157853651543</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.686151032734605</v>
+        <v>3.471967362985207</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.724157853651543</v>
+        <v>2.082373012887607e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.471967362985207</v>
+        <v>25501155.84757633</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.082373012887607e-14</v>
+        <v>4.549077715138636e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25501155.84757633</v>
+        <v>13.54185806607981</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.549077715138636e-06</v>
+        <v>0.0001544341530286581</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>13.54185806607981</v>
+        <v>12.01902987489259</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001544341530286581</v>
+        <v>1.13356067098182</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.01902987489259</v>
+        <v>0.02230910666498527</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.13356067098182</v>
+        <v>2.957772967996459</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02230910666498527</v>
+        <v>0.959254345920875</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.957772967996459</v>
+        <v>1.699053977693261</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.959254345920875</v>
+        <v>24</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.699053977693261</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.19624532903051</v>
       </c>
     </row>
@@ -7216,72 +7132,66 @@
         <v>3.319502496036981e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6907883455406945</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.0627211379649</v>
+        <v>6.275015364320058e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03353325040743316</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.275015364320058e-06</v>
+        <v>0.09057923292907867</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03353325040743316</v>
+        <v>0.009328675788436885</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09057923292907867</v>
+        <v>1.747402727831837</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009328675788436885</v>
+        <v>1.700974608467479</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.669097595084661</v>
+        <v>3.468072670602024</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.700974608467479</v>
+        <v>2.087052705048799e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.468072670602024</v>
+        <v>25475817.00097769</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.087052705048799e-14</v>
+        <v>4.544560566503014e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>25475817.00097769</v>
+        <v>13.54533211132995</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.544560566503014e-06</v>
+        <v>0.0001522621032611202</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.54533211132995</v>
+        <v>12.3682399892763</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001522621032611202</v>
+        <v>1.062799141984522</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.3682399892763</v>
+        <v>0.02329204560234849</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.062799141984522</v>
+        <v>2.848146279048212</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02329204560234849</v>
+        <v>0.9600665119420045</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.848146279048212</v>
+        <v>1.678711865677665</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9600665119420045</v>
+        <v>27</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.678711865677665</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2007034967425419</v>
       </c>
     </row>
@@ -7296,72 +7206,66 @@
         <v>3.403462394991e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6295826290558579</v>
+        <v>9.657524728063818e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.182032770901321</v>
+        <v>6.286489990505867e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.657524728063818e-07</v>
+        <v>0.03467051650234659</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.286489990505867e-06</v>
+        <v>0.08735112111460307</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03467051650234659</v>
+        <v>0.008831995927308278</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08735112111460307</v>
+        <v>1.751562802093565</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008831995927308278</v>
+        <v>1.668870624589833</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.672612824435471</v>
+        <v>3.522445707539907</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.668870624589833</v>
+        <v>2.023117836999938e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.522445707539907</v>
+        <v>27190858.20711361</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.023117836999938e-14</v>
+        <v>4.281399070605571e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>27190858.20711361</v>
+        <v>14.95777545723568</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.281399070605571e-06</v>
+        <v>0.0001518744311035936</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>14.95777545723568</v>
+        <v>11.18037507562617</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001518744311035936</v>
+        <v>1.16189577707887</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.18037507562617</v>
+        <v>0.01898442338756343</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.16189577707887</v>
+        <v>3.002997521103964</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01898442338756343</v>
+        <v>0.9599263427671223</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.002997521103964</v>
+        <v>1.712601618544546</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9599263427671223</v>
+        <v>28</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.712601618544546</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1945649604414829</v>
       </c>
     </row>
@@ -7376,72 +7280,66 @@
         <v>3.484422434912803e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5681638187911154</v>
+        <v>9.67908857820713e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.285554184321903</v>
+        <v>6.298602339739468e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.67908857820713e-07</v>
+        <v>0.03562172844592718</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.298602339739468e-06</v>
+        <v>0.08435469060177515</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03562172844592718</v>
+        <v>0.008384439374087803</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08435469060177515</v>
+        <v>1.75328804976809</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008384439374087803</v>
+        <v>1.622683036033585</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.67603048881588</v>
+        <v>3.717169467407527</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.622683036033585</v>
+        <v>1.816707765171148e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.717169467407527</v>
+        <v>30628162.44076935</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.816707765171148e-14</v>
+        <v>3.805895100477659e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>30628162.44076935</v>
+        <v>17.04225094868205</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.805895100477659e-06</v>
+        <v>0.0001702116543178198</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>17.04225094868205</v>
+        <v>9.907255430400689</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001702116543178198</v>
+        <v>1.489932875498721</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.907255430400689</v>
+        <v>0.01670690538431075</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.489932875498721</v>
+        <v>3.090647847046881</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01670690538431075</v>
+        <v>0.9581762782497814</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.090647847046881</v>
+        <v>1.711647515590992</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9581762782497814</v>
+        <v>31</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.711647515590992</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1880505472245801</v>
       </c>
     </row>
@@ -7456,72 +7354,66 @@
         <v>3.561196715124029e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5066115749109394</v>
+        <v>9.787435439187882e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.374760267696678</v>
+        <v>6.311292082783742e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.787435439187882e-07</v>
+        <v>0.03636517154959737</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.311292082783742e-06</v>
+        <v>0.08160560122640605</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03636517154959737</v>
+        <v>0.007981796057481944</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08160560122640605</v>
+        <v>1.749688810086082</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.007981796057481944</v>
+        <v>1.61217018254843</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.669960607184812</v>
+        <v>4.003590947413592</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.61217018254843</v>
+        <v>1.4754392572355e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.003590947413592</v>
+        <v>37291867.32300574</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.4754392572355e-14</v>
+        <v>3.113592593333156e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>37291867.32300574</v>
+        <v>20.51868836175954</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.113592593333156e-06</v>
+        <v>0.0001838952984274621</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>20.51868836175954</v>
+        <v>9.9074159755636</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001838952984274621</v>
+        <v>1.61244178166029</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.9074159755636</v>
+        <v>0.01805059082068904</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.61244178166029</v>
+        <v>3.068089136054606</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01805059082068904</v>
+        <v>0.9578584214184424</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.068089136054606</v>
+        <v>1.68914112906724</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9578584214184424</v>
+        <v>34</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.68914112906724</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1956327125679826</v>
       </c>
     </row>
@@ -7536,72 +7428,66 @@
         <v>3.632840850477012e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4450058984242573</v>
+        <v>9.911354794043288e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.450847634855043</v>
+        <v>6.324511154220566e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.911354794043288e-07</v>
+        <v>0.0371693558851507</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.324511154220566e-06</v>
+        <v>0.0790850641682113</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0371693558851507</v>
+        <v>0.007635841749401423</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.0790850641682113</v>
+        <v>1.778465343195801</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.007635841749401423</v>
+        <v>1.870438923038211</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.700082259984825</v>
+        <v>3.565465915823506</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.870438923038211</v>
+        <v>1.416471972250087e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.565465915823506</v>
+        <v>39111054.54751433</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.416471972250087e-14</v>
+        <v>2.991238031223043e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>39111054.54751433</v>
+        <v>21.66741180308309</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.991238031223043e-06</v>
+        <v>0.0001473977811948473</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>21.66741180308309</v>
+        <v>10.67738694250776</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001473977811948473</v>
+        <v>1.294197353266093</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.67738694250776</v>
+        <v>0.0168043186905996</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.294197353266093</v>
+        <v>3.137193313333744</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0168043186905996</v>
+        <v>0.9583932732455572</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.137193313333744</v>
+        <v>1.686958571338529</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9583932732455572</v>
+        <v>33</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.686958571338529</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2223316168888306</v>
       </c>
     </row>
@@ -7616,72 +7502,66 @@
         <v>3.700761772936496e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3844196337621507</v>
+        <v>1.012846641802275e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.513004173599115</v>
+        <v>6.338350241033569e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.012846641802275e-06</v>
+        <v>0.03833644840698766</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.338350241033569e-06</v>
+        <v>0.07681925418382476</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.03833644840698766</v>
+        <v>0.00737061772231151</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.07681925418382476</v>
+        <v>1.787067217103945</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.00737061772231151</v>
+        <v>1.826609077085558</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.710976715905048</v>
+        <v>3.474040235712657</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.826609077085558</v>
+        <v>1.492007051626196e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.474040235712657</v>
+        <v>36935538.66466188</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.492007051626196e-14</v>
+        <v>3.173964611444657e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>36935538.66466188</v>
+        <v>20.35446772609836</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.173964611444657e-06</v>
+        <v>0.0001464798764399856</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>20.35446772609836</v>
+        <v>11.32740546907339</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001464798764399856</v>
+        <v>1.093394162150352</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.32740546907339</v>
+        <v>0.01879484974151346</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.093394162150352</v>
+        <v>2.879836462487375</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01879484974151346</v>
+        <v>0.9582036103438739</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.879836462487375</v>
+        <v>1.690996833326714</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9582036103438739</v>
+        <v>33</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.690996833326714</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2251454574270113</v>
       </c>
     </row>
@@ -7696,72 +7576,66 @@
         <v>3.766800437149075e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.326063457514405</v>
+        <v>1.042415928449123e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.560378254463545</v>
+        <v>6.352916984138257e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.042415928449123e-06</v>
+        <v>0.03974438565860733</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.352916984138257e-06</v>
+        <v>0.07485864938169626</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.03974438565860733</v>
+        <v>0.007182907741585064</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.07485864938169626</v>
+        <v>1.809764951877234</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.007182907741585064</v>
+        <v>1.694982501880466</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.740655908315931</v>
+        <v>3.742782083651651</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.694982501880466</v>
+        <v>1.591451236039531e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.742782083651651</v>
+        <v>33672654.93810828</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.591451236039531e-14</v>
+        <v>3.486771624485465e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>33672654.93810828</v>
+        <v>18.04463308655553</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.486771624485465e-06</v>
+        <v>0.0001611839571971193</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>18.04463308655553</v>
+        <v>10.66088705120435</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001611839571971193</v>
+        <v>1.149820888105857</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.66088705120435</v>
+        <v>0.01831928411328404</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.149820888105857</v>
+        <v>2.8386117432273</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01831928411328404</v>
+        <v>0.9579613640276613</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.8386117432273</v>
+        <v>1.63871252976911</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9579613640276613</v>
+        <v>13</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.63871252976911</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2062938426006233</v>
       </c>
     </row>
@@ -7776,72 +7650,66 @@
         <v>3.833488939433133e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2716114539722794</v>
+        <v>1.083946982879321e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.591287532159505</v>
+        <v>6.36835730454385e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.083946982879321e-06</v>
+        <v>0.04152907362292388</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.36835730454385e-06</v>
+        <v>0.07335073032842591</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04152907362292388</v>
+        <v>0.007104312463128176</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.07335073032842591</v>
+        <v>1.801269418445385</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.007104312463128176</v>
+        <v>1.667620979209935</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.725945838059992</v>
+        <v>3.897628473017416</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.667620979209935</v>
+        <v>1.229041562128784e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.897628473017416</v>
+        <v>43768028.02488469</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.229041562128784e-14</v>
+        <v>2.675462131734308e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>43768028.02488469</v>
+        <v>23.54401518750838</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.675462131734308e-06</v>
+        <v>0.000172096168159849</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>23.54401518750838</v>
+        <v>10.08836883698391</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000172096168159849</v>
+        <v>1.261912825477853</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.08836883698391</v>
+        <v>0.01751511948839264</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.261912825477853</v>
+        <v>2.870426133910239</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01751511948839264</v>
+        <v>0.9574569449025139</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.870426133910239</v>
+        <v>1.670272419077194</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9574569449025139</v>
+        <v>16</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.670272419077194</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.207765388459472</v>
       </c>
     </row>
@@ -7856,72 +7724,66 @@
         <v>3.902019796366637e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.222073486006914</v>
+        <v>1.122923495928348e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.605491172318526</v>
+        <v>6.384730715163319e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.122923495928348e-06</v>
+        <v>0.04302333770011041</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.384730715163319e-06</v>
+        <v>0.07179640192622079</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04302333770011041</v>
+        <v>0.007005469889566185</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.07179640192622079</v>
+        <v>1.792837396689578</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.007005469889566185</v>
+        <v>1.772070314570491</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.713058149477585</v>
+        <v>4.102540586945895</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.772070314570491</v>
+        <v>1.109332343724454e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.102540586945895</v>
+        <v>48809783.06903672</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.109332343724454e-14</v>
+        <v>2.399377429048787e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>48809783.06903672</v>
+        <v>26.42867743882195</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.399377429048787e-06</v>
+        <v>0.0001678963063839757</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>26.42867743882195</v>
+        <v>9.670805891042422</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001678963063839757</v>
+        <v>1.375878643246212</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.670805891042422</v>
+        <v>0.01570241585361257</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.375878643246212</v>
+        <v>3.022893319318639</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01570241585361257</v>
+        <v>0.9562394906424171</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.022893319318639</v>
+        <v>1.698944237450045</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9562394906424171</v>
+        <v>16</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.698944237450045</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2410592910709571</v>
       </c>
     </row>
@@ -7936,72 +7798,66 @@
         <v>3.969316156123997e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1755199745953201</v>
+        <v>1.145218345087062e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.608525487937817</v>
+        <v>6.401823569106756e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.145218345087062e-06</v>
+        <v>0.04365799856205751</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.401823569106756e-06</v>
+        <v>0.0700641110033853</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04365799856205751</v>
+        <v>0.006815161910956546</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.0700641110033853</v>
+        <v>1.804657769983811</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.006815161910956546</v>
+        <v>1.679107530588156</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.728496606242278</v>
+        <v>3.905669492328664</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.679107530588156</v>
+        <v>1.252826243948989e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.905669492328664</v>
+        <v>43571649.41855799</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.252826243948989e-14</v>
+        <v>2.696112229573797e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>43571649.41855799</v>
+        <v>23.78476383328549</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.696112229573797e-06</v>
+        <v>0.0001464892423554904</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>23.78476383328549</v>
+        <v>9.542455517755789</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001464892423554904</v>
+        <v>1.395038684658702</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.542455517755789</v>
+        <v>0.01333908442115964</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.395038684658702</v>
+        <v>3.210116245285884</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01333908442115964</v>
+        <v>0.9574541532730434</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.210116245285884</v>
+        <v>1.678880812313815</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9574541532730434</v>
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.678880812313815</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2759312390557825</v>
       </c>
     </row>
@@ -8016,72 +7872,66 @@
         <v>4.029922150988679e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1282083174477529</v>
+        <v>1.148300849591069e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.608311279323046</v>
+        <v>6.419264647274879e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.148300849591069e-06</v>
+        <v>0.04343502677940988</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.419264647274879e-06</v>
+        <v>0.06870671532916948</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04343502677940988</v>
+        <v>0.006607437049395578</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06870671532916948</v>
+        <v>1.790386364830738</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.006607437049395578</v>
+        <v>1.786804115330722</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.712334697438644</v>
+        <v>4.163539750687462</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.786804115330722</v>
+        <v>1.102443624864872e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.163539750687462</v>
+        <v>49271228.83226597</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.102443624864872e-14</v>
+        <v>2.380156407307921e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>49271228.83226597</v>
+        <v>26.76351665360506</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.380156407307921e-06</v>
+        <v>0.0001463553725869539</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>26.76351665360506</v>
+        <v>9.785548108749181</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001463553725869539</v>
+        <v>1.31640897024693</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.785548108749181</v>
+        <v>0.01401454435681807</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.31640897024693</v>
+        <v>3.170189097701634</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01401454435681807</v>
+        <v>0.9559983476130191</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.170189097701634</v>
+        <v>1.678871203236686</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9559983476130191</v>
+        <v>16</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.678871203236686</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2489905324275481</v>
       </c>
     </row>
@@ -8096,72 +7946,66 @@
         <v>4.080856528983986e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.07836719003359476</v>
+        <v>1.148300849591069e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.607191764391644</v>
+        <v>6.436818173737997e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.148300849591069e-06</v>
+        <v>0.04317054745770926</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.436818173737997e-06</v>
+        <v>0.06764833432278948</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04317054745770926</v>
+        <v>0.006440210696103929</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06764833432278948</v>
+        <v>1.779829320692026</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.006440210696103929</v>
+        <v>1.776871915165964</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.703970988627563</v>
+        <v>4.1068888660907</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.776871915165964</v>
+        <v>1.133067856566111e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.1068888660907</v>
+        <v>48614465.28049694</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.133067856566111e-14</v>
+        <v>2.402286471244453e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>48614465.28049694</v>
+        <v>26.77854313615428</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.402286471244453e-06</v>
+        <v>0.0001440869100247027</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>26.77854313615428</v>
+        <v>10.09720450258728</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001440869100247027</v>
+        <v>1.217366278100308</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.09720450258728</v>
+        <v>0.01469017036703069</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.217366278100308</v>
+        <v>3.015677487443772</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01469017036703069</v>
+        <v>0.9561614221494044</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.015677487443772</v>
+        <v>1.69314383024002</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9561614221494044</v>
+        <v>16</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.69314383024002</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2388873394222079</v>
       </c>
     </row>
@@ -8176,72 +8020,66 @@
         <v>4.124417061866201e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.02754738466463573</v>
+        <v>1.160211490575175e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.601549185237573</v>
+        <v>6.454560539519248e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.160211490575175e-06</v>
+        <v>0.04333485150564735</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.454560539519248e-06</v>
+        <v>0.06663704947969824</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04333485150564735</v>
+        <v>0.006318582811283652</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.06663704947969824</v>
+        <v>1.75156740622641</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.006318582811283652</v>
+        <v>1.740447818884507</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.67498180736716</v>
+        <v>4.048727739123608</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.740447818884507</v>
+        <v>1.165855362911081e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.048727739123608</v>
+        <v>49143375.69108795</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.165855362911081e-14</v>
+        <v>2.354989759349587e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>49143375.69108795</v>
+        <v>28.1562391355866</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.354989759349587e-06</v>
+        <v>0.000148393461800184</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>28.1562391355866</v>
+        <v>9.557744875588325</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000148393461800184</v>
+        <v>1.24589452700558</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.557744875588325</v>
+        <v>0.01355581501891631</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.24589452700558</v>
+        <v>2.8804442906721</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01355581501891631</v>
+        <v>0.9549850969550482</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.8804442906721</v>
+        <v>1.69347560153975</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9549850969550482</v>
+        <v>19</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.69347560153975</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2215685597255098</v>
       </c>
     </row>
@@ -8256,72 +8094,66 @@
         <v>4.162420072543791e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02357249257320934</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.589906457574212</v>
+        <v>6.472491891037565e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04303803346516284</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.472491891037565e-06</v>
+        <v>0.06600087749369071</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04303803346516284</v>
+        <v>0.006208607186000857</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.06600087749369071</v>
+        <v>1.733101119346317</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.006208607186000857</v>
+        <v>1.749926762507059</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.649485496395031</v>
+        <v>3.780387382822685</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.749926762507059</v>
+        <v>1.382207714432596e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.780387382822685</v>
+        <v>41610435.95443883</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.382207714432596e-14</v>
+        <v>2.774472049658598e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>41610435.95443883</v>
+        <v>23.93193664263703</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.774472049658598e-06</v>
+        <v>0.000149172394971696</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>23.93193664263703</v>
+        <v>9.319409600522423</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000149172394971696</v>
+        <v>1.368613641258838</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.319409600522423</v>
+        <v>0.01295583064387902</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.368613641258838</v>
+        <v>2.813239208766211</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01295583064387902</v>
+        <v>0.954262412364885</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.813239208766211</v>
+        <v>1.742044247204092</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.954262412364885</v>
+        <v>19</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.742044247204092</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2285566520522908</v>
       </c>
     </row>
@@ -8336,72 +8168,66 @@
         <v>4.191505517071029e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.07737056558263192</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.574571856011909</v>
+        <v>6.490278355818387e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04205801605719946</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.490278355818387e-06</v>
+        <v>0.06614840954602079</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04205801605719946</v>
+        <v>0.006144579332325965</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.06614840954602079</v>
+        <v>1.712923240085136</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.006144579332325965</v>
+        <v>1.726706345290345</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.621212837659145</v>
+        <v>3.736138896256358</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.726706345290345</v>
+        <v>1.415141593546244e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.736138896256358</v>
+        <v>39367557.38915905</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.415141593546244e-14</v>
+        <v>2.905355226473871e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>39367557.38915905</v>
+        <v>21.93192915651785</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.905355226473871e-06</v>
+        <v>0.0001325135917198738</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>21.93192915651785</v>
+        <v>8.222156887997706</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001325135917198738</v>
+        <v>1.537438329709542</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.222156887997706</v>
+        <v>0.008958430818317764</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.537438329709542</v>
+        <v>3.044750213594784</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.008958430818317764</v>
+        <v>0.9543113606175556</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.044750213594784</v>
+        <v>1.747892592761329</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9543113606175556</v>
+        <v>19</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.747892592761329</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2416815905103694</v>
       </c>
     </row>
@@ -8416,72 +8242,66 @@
         <v>4.208743337093046e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.1348346992469563</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.554684491197685</v>
+        <v>6.507759352230308e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04119353608460292</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.507759352230308e-06</v>
+        <v>0.0665912940197468</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04119353608460292</v>
+        <v>0.00613135981712246</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.0665912940197468</v>
+        <v>1.722464492700962</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.00613135981712246</v>
+        <v>1.92493078919451</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.630838913758467</v>
+        <v>3.842082090757681</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.92493078919451</v>
+        <v>1.338174170579464e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.842082090757681</v>
+        <v>41240712.1441544</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.338174170579464e-14</v>
+        <v>2.781235749784513e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>41240712.1441544</v>
+        <v>22.75961729137839</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.781235749784513e-06</v>
+        <v>0.0001176508453462336</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22.75961729137839</v>
+        <v>6.993658947099118</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001176508453462336</v>
+        <v>1.520787847502512</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.993658947099118</v>
+        <v>0.005754451729304189</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.520787847502512</v>
+        <v>3.183943641578037</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.005754451729304189</v>
+        <v>0.9535818218196727</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.183943641578037</v>
+        <v>1.755959138778304</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9535818218196727</v>
+        <v>20</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.755959138778304</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2412842059206571</v>
       </c>
     </row>
@@ -8496,72 +8316,66 @@
         <v>4.213339704758223e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.1953345211570617</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.527438439108298</v>
+        <v>6.524984104636196e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04062353518384784</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.524984104636196e-06</v>
+        <v>0.06709958672924006</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04062353518384784</v>
+        <v>0.006152674818451448</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.06709958672924006</v>
+        <v>1.715592986871201</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.006152674818451448</v>
+        <v>1.856502494717937</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.62443819392303</v>
+        <v>3.829366631363456</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.856502494717937</v>
+        <v>1.347075772884708e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.829366631363456</v>
+        <v>39592299.62528162</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.347075772884708e-14</v>
+        <v>2.872332749871122e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>39592299.62528162</v>
+        <v>21.11608883215338</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.872332749871122e-06</v>
+        <v>0.0001200182620938884</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>21.11608883215338</v>
+        <v>7.561898371035578</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001200182620938884</v>
+        <v>1.377722544241595</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.561898371035578</v>
+        <v>0.006862921105523173</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.377722544241595</v>
+        <v>2.995425702180648</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006862921105523173</v>
+        <v>0.9529711680612865</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.995425702180648</v>
+        <v>1.771225135389895</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9529711680612865</v>
+        <v>26</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.771225135389895</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2514774138696925</v>
       </c>
     </row>
@@ -8576,72 +8390,66 @@
         <v>4.20533178000643e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2581683512655428</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.490609608120797</v>
+        <v>6.542006587592999e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04020382336429652</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.542006587592999e-06</v>
+        <v>0.06776769685448038</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.04020382336429652</v>
+        <v>0.00620882354825714</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06776769685448038</v>
+        <v>1.708554684152714</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00620882354825714</v>
+        <v>1.932782600299552</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.617597291184107</v>
+        <v>3.822338127573099</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.932782600299552</v>
+        <v>1.352034325298052e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.822338127573099</v>
+        <v>39283207.52608409</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.352034325298052e-14</v>
+        <v>2.88787774435316e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>39283207.52608409</v>
+        <v>20.86419341846254</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.88787774435316e-06</v>
+        <v>0.0001217513857517744</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>20.86419341846254</v>
+        <v>7.628142313065624</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001217513857517744</v>
+        <v>1.376429737252225</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.628142313065624</v>
+        <v>0.007084537224209075</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.376429737252225</v>
+        <v>2.976066354966436</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007084537224209075</v>
+        <v>0.9552270222643279</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.976066354966436</v>
+        <v>1.754941246205229</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9552270222643279</v>
+        <v>28</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.754941246205229</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2430143067206048</v>
       </c>
     </row>
@@ -8656,72 +8464,66 @@
         <v>4.185055307798753e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3231116540675081</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.442548340350599</v>
+        <v>6.558761919948775e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03961473344672622</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.558761919948775e-06</v>
+        <v>0.06894373654073757</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03961473344672622</v>
+        <v>0.006322532979861179</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06894373654073757</v>
+        <v>1.70891927082453</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006322532979861179</v>
+        <v>1.834099474619753</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.618809427318291</v>
+        <v>3.822607791426239</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.834099474619753</v>
+        <v>1.351843574927857e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.822607791426239</v>
+        <v>39222872.18626796</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.351843574927857e-14</v>
+        <v>2.894168360296986e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>39222872.18626796</v>
+        <v>20.79721716231595</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.894168360296986e-06</v>
+        <v>0.0001305922423208443</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>20.79721716231595</v>
+        <v>8.10193947692145</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001305922423208443</v>
+        <v>1.508535260429983</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.10193947692145</v>
+        <v>0.0085722606562722</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.508535260429983</v>
+        <v>2.933292997410347</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0085722606562722</v>
+        <v>0.9548887498882687</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.933292997410347</v>
+        <v>1.763543277100335</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9548887498882687</v>
+        <v>28</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.763543277100335</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2405125168573067</v>
       </c>
     </row>
@@ -8736,72 +8538,66 @@
         <v>4.152960288239568e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.3900405024169773</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.381606447871106</v>
+        <v>6.575167636943577e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03908719277686509</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.575167636943577e-06</v>
+        <v>0.07035530810654977</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.03908719277686509</v>
+        <v>0.006477660679902949</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.07035530810654977</v>
+        <v>1.714356000745576</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.006477660679902949</v>
+        <v>1.700438257152655</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.629268613930442</v>
+        <v>3.920445629470855</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.700438257152655</v>
+        <v>1.285212829227511e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.920445629470855</v>
+        <v>41887111.07619622</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.285212829227511e-14</v>
+        <v>2.719940503970649e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>41887111.07619622</v>
+        <v>22.54944560768196</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.719940503970649e-06</v>
+        <v>0.0001403190217267913</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>22.54944560768196</v>
+        <v>8.692133461804334</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001403190217267913</v>
+        <v>1.547083005210522</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.692133461804334</v>
+        <v>0.01060154888375645</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.547083005210522</v>
+        <v>2.87456444206621</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01060154888375645</v>
+        <v>0.9554978496476509</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.87456444206621</v>
+        <v>1.759330573083823</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9554978496476509</v>
+        <v>44</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.759330573083823</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2507599744052148</v>
       </c>
     </row>
@@ -8816,72 +8612,66 @@
         <v>4.109571975604074e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.4585887823134017</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.306341403664986</v>
+        <v>6.591256619021664e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03880431172573513</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.591256619021664e-06</v>
+        <v>0.07177420060395355</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.03880431172573513</v>
+        <v>0.006657375754606882</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07177420060395355</v>
+        <v>1.713770350089296</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006657375754606882</v>
+        <v>1.780626210707168</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.631638789356445</v>
+        <v>3.974821157895467</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.780626210707168</v>
+        <v>1.250289939988804e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.974821157895467</v>
+        <v>42916679.80735249</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.250289939988804e-14</v>
+        <v>2.655643693151942e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>42916679.80735249</v>
+        <v>23.02835780585064</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.655643693151942e-06</v>
+        <v>0.0001421334697747857</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>23.02835780585064</v>
+        <v>8.77586339108935</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001421334697747857</v>
+        <v>1.577824120221833</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.77586339108935</v>
+        <v>0.01094651979136603</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.577824120221833</v>
+        <v>2.902002518246257</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01094651979136603</v>
+        <v>0.9565360326058562</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.902002518246257</v>
+        <v>1.749172615361576</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9565360326058562</v>
+        <v>44</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.749172615361576</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2709633247256274</v>
       </c>
     </row>
@@ -8896,72 +8686,66 @@
         <v>4.056209270884847e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.5286220497539373</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.215496419083939</v>
+        <v>6.607066893673677e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03859669620544538</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.607066893673677e-06</v>
+        <v>0.07330967526814178</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.03859669620544538</v>
+        <v>0.006864089447854943</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.07330967526814178</v>
+        <v>1.716327518103768</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.006864089447854943</v>
+        <v>1.646232943233306</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.636340051218079</v>
+        <v>4.152886364965745</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.646232943233306</v>
+        <v>1.106665445514778e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.152886364965745</v>
+        <v>48039203.59276377</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.106665445514778e-14</v>
+        <v>2.377538314211006e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>48039203.59276377</v>
+        <v>25.53923872423534</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.377538314211006e-06</v>
+        <v>0.0001461962911647705</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>25.53923872423534</v>
+        <v>8.87343052179676</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001461962911647705</v>
+        <v>1.528763414021202</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.87343052179676</v>
+        <v>0.01151116983530516</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.528763414021202</v>
+        <v>2.761186133585594</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01151116983530516</v>
+        <v>0.9556839121666273</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.761186133585594</v>
+        <v>1.74687677289342</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9556839121666273</v>
+        <v>62</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.74687677289342</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2953247306151096</v>
       </c>
     </row>
@@ -8976,72 +8760,66 @@
         <v>3.994474766688037e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6004246350503408</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.107329098203322</v>
+        <v>6.622549902801305e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03830917784593784</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.622549902801305e-06</v>
+        <v>0.07506297717942706</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.03830917784593784</v>
+        <v>0.007102134252035691</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.07506297717942706</v>
+        <v>1.741537344378068</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.007102134252035691</v>
+        <v>1.922174587460982</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.66833795288446</v>
+        <v>4.301007580840642</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.922174587460982</v>
+        <v>1.031753686080265e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.301007580840642</v>
+        <v>53038121.04250132</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.031753686080265e-14</v>
+        <v>2.17781104149478e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>53038121.04250132</v>
+        <v>29.02366745326746</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.17781104149478e-06</v>
+        <v>0.0001382377190463507</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>29.02366745326746</v>
+        <v>8.507962249022249</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001382377190463507</v>
+        <v>1.574756309809584</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.507962249022249</v>
+        <v>0.01000639557844847</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.574756309809584</v>
+        <v>2.889119514210163</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01000639557844847</v>
+        <v>0.9570928777132752</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.889119514210163</v>
+        <v>1.734486289019689</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9570928777132752</v>
+        <v>59</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.734486289019689</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3056189243980418</v>
       </c>
     </row>
@@ -9056,72 +8834,66 @@
         <v>3.925116416889416e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6742110681502125</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9798570628252996</v>
+        <v>6.637722821451356e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03842261543331978</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.637722821451356e-06</v>
+        <v>0.07677862362373966</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.03842261543331978</v>
+        <v>0.007371393291473397</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.07677862362373966</v>
+        <v>1.755144731162495</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.007371393291473397</v>
+        <v>1.72952092664076</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.689923920204155</v>
+        <v>4.324904687679751</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.72952092664076</v>
+        <v>1.020383349799013e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.324904687679751</v>
+        <v>53653665.0616252</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.020383349799013e-14</v>
+        <v>2.159278245499476e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>53653665.0616252</v>
+        <v>29.3739364514955</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.159278245499476e-06</v>
+        <v>0.0001302358505878088</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>29.3739364514955</v>
+        <v>8.049621711936039</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001302358505878088</v>
+        <v>1.591218865254784</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.049621711936039</v>
+        <v>0.008438815533002263</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.591218865254784</v>
+        <v>2.898931127955136</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008438815533002263</v>
+        <v>0.9584175595036373</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.898931127955136</v>
+        <v>1.717260780786506</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9584175595036373</v>
+        <v>59</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.717260780786506</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3199031314954549</v>
       </c>
     </row>
@@ -9136,72 +8908,66 @@
         <v>3.846142195263723e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.749492699340224</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.8317259724471415</v>
+        <v>6.652809709420691e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.03933845948574875</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.652809709420691e-06</v>
+        <v>0.07825515151893743</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.03933845948574875</v>
+        <v>0.007671498458214926</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.07825515151893743</v>
+        <v>1.752120414592389</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.007671498458214926</v>
+        <v>1.665870173661065</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.687843352205824</v>
+        <v>4.804882393092335</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.665870173661065</v>
+        <v>8.267056789609549e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.804882393092335</v>
+        <v>65166628.59793355</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>8.267056789609549e-15</v>
+        <v>1.772478546091783e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>65166628.59793355</v>
+        <v>35.10762312231891</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.772478546091783e-06</v>
+        <v>0.0001112616508101032</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>35.10762312231891</v>
+        <v>7.254596382678221</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001112616508101032</v>
+        <v>1.585894386703144</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.254596382678221</v>
+        <v>0.005855608187607058</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.585894386703144</v>
+        <v>3.168225438034277</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.005855608187607058</v>
+        <v>0.9565501429425721</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.168225438034277</v>
+        <v>1.703394081433641</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9565501429425721</v>
+        <v>59</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.703394081433641</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.3263144902269263</v>
       </c>
     </row>
@@ -9216,72 +8982,66 @@
         <v>3.755210035136756e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.8254251717897211</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.6626686119122231</v>
+        <v>6.668071316697521e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.0410773495990559</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.668071316697521e-06</v>
+        <v>0.07958122614097156</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.0410773495990559</v>
+        <v>0.008020587061918496</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.07958122614097156</v>
+        <v>1.783939660892039</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.008020587061918496</v>
+        <v>1.887409964493679</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.730223755624614</v>
+        <v>5.037523019978884</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.887409964493679</v>
+        <v>7.521117224910803e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>5.037523019978884</v>
+        <v>71012602.144187</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7.521117224910803e-15</v>
+        <v>1.636110357336505e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>71012602.144187</v>
+        <v>37.92741219816198</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.636110357336505e-06</v>
+        <v>0.0001006353315442721</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>37.92741219816198</v>
+        <v>7.195304368679754</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001006353315442721</v>
+        <v>1.861888815472988</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.195304368679754</v>
+        <v>0.005210133137786803</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.861888815472988</v>
+        <v>3.488857036866581</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.005210133137786803</v>
+        <v>0.9583086024134626</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.488857036866581</v>
+        <v>1.692608912033289</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9583086024134626</v>
+        <v>59</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.692608912033289</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.3950216811796504</v>
       </c>
     </row>
@@ -9296,72 +9056,66 @@
         <v>3.651184430556135e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.9009586157589999</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.4741248580757795</v>
+        <v>6.683734532719143e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04362355528962539</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.683734532719143e-06</v>
+        <v>0.08109043372827292</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.04362355528962539</v>
+        <v>0.00847861438516904</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.08109043372827292</v>
+        <v>1.803605999867049</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.00847861438516904</v>
+        <v>1.643740952815687</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.752103478607781</v>
+        <v>4.944061852353656</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.643740952815687</v>
+        <v>7.808159109889516e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.944061852353656</v>
+        <v>66397904.45891101</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7.808159109889516e-15</v>
+        <v>1.76396605104603e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>66397904.45891101</v>
+        <v>34.42368830756357</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.76396605104603e-06</v>
+        <v>9.574189141592482e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>34.42368830756357</v>
+        <v>10.25462820940099</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>9.574189141592482e-05</v>
+        <v>1.470104119633412</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>10.25462820940099</v>
+        <v>0.01006796834490712</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.470104119633412</v>
+        <v>3.529378500883151</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01006796834490712</v>
+        <v>0.9591710732921849</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.529378500883151</v>
+        <v>1.687869693587211</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9591710732921849</v>
+        <v>56</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.687869693587211</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.6546067849711756</v>
       </c>
     </row>
@@ -9376,72 +9130,66 @@
         <v>3.533657058709856e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.9744668325570706</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.2699093313653611</v>
+        <v>6.699948281460179e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.04659453139740427</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.699948281460179e-06</v>
+        <v>0.08307762531100533</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.04659453139740427</v>
+        <v>0.009073067149130098</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.08307762531100533</v>
+        <v>1.809640630328283</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.009073067149130098</v>
+        <v>1.90681041314644</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.757770967466441</v>
+        <v>4.436898476783127</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.90681041314644</v>
+        <v>7.878049452260465e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.436898476783127</v>
+        <v>65549379.16358935</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7.878049452260465e-15</v>
+        <v>1.787945793228324e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>65549379.16358935</v>
+        <v>33.84978137716212</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.787945793228324e-06</v>
+        <v>0.0001038598055552827</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>33.84978137716212</v>
+        <v>8.494894201929299</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001038598055552827</v>
+        <v>2.072645324428535</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.494894201929299</v>
+        <v>0.007494858776596445</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>2.072645324428535</v>
+        <v>3.792923378196659</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.007494858776596445</v>
+        <v>0.9588838982256587</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.792923378196659</v>
+        <v>1.622373890201541</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9588838982256587</v>
+        <v>54</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.622373890201541</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.6976703856471493</v>
       </c>
     </row>
@@ -9456,72 +9204,66 @@
         <v>3.4010645174292e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-1.04338520385446</v>
+        <v>1.165596167966708e-06</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.05636668494026464</v>
+        <v>6.716560171577271e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.165596167966708e-06</v>
+        <v>0.0491054707337089</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.716560171577271e-06</v>
+        <v>0.08587368850794216</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.0491054707337089</v>
+        <v>0.009785922679356466</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.08587368850794216</v>
+        <v>1.821032150835665</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.009785922679356466</v>
+        <v>1.708841275048161</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.772620959976142</v>
+        <v>4.587126352295722</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.708841275048161</v>
+        <v>6.371821274387919e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.587126352295722</v>
+        <v>81328654.4597297</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>6.371821274387919e-15</v>
+        <v>1.447410239944417e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>81328654.4597297</v>
+        <v>42.14545627709953</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.447410239944417e-06</v>
+        <v>0.0001298660047517717</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>42.14545627709953</v>
+        <v>7.267991399230356</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001298660047517717</v>
+        <v>1.795989230960419</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.267991399230356</v>
+        <v>0.006860002742650169</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.795989230960419</v>
+        <v>3.437014386580492</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.006860002742650169</v>
+        <v>0.9593799847904304</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.437014386580492</v>
+        <v>1.647953087854505</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9593799847904304</v>
+        <v>54</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.647953087854505</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.4624854491710877</v>
       </c>
     </row>
@@ -9536,72 +9278,66 @@
         <v>3.251792897274692e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-1.104244087773126</v>
+        <v>1.165585430251261e-06</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.1553974412567007</v>
+        <v>6.733283144782712e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.165585430251261e-06</v>
+        <v>0.05140353688376852</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.733283144782712e-06</v>
+        <v>0.08978186597648274</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.05140353688376852</v>
+        <v>0.01070344685948378</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.08978186597648274</v>
+        <v>1.838335940947093</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01070344685948378</v>
+        <v>2.076195298331082</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.798172193696205</v>
+        <v>4.67253609366171</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.076195298331082</v>
+        <v>4.964958702573075e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.67253609366171</v>
+        <v>103652745.8928331</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.964958702573075e-15</v>
+        <v>1.139902304462956e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>103652745.8928331</v>
+        <v>53.34297874994814</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.139902304462956e-06</v>
+        <v>0.0001213652681376183</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>53.34297874994814</v>
+        <v>7.861472570756049</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001213652681376183</v>
+        <v>1.320546781407119</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.861472570756049</v>
+        <v>0.007500707444421144</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.320546781407119</v>
+        <v>3.265372764481444</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.007500707444421144</v>
+        <v>0.9595742227366014</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.265372764481444</v>
+        <v>1.645930526789748</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9595742227366014</v>
+        <v>63</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.645930526789748</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.3388142941468132</v>
       </c>
     </row>
@@ -9978,7 +9714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.734981843992321</v>
+        <v>1.759625794388845</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.688162474290694</v>
@@ -10067,7 +9803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.754644771608481</v>
+        <v>1.78060935458584</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.557906365722007</v>
@@ -10156,7 +9892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.79552976455994</v>
+        <v>1.820089001194902</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.480573345354977</v>
@@ -10245,7 +9981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.799287647484995</v>
+        <v>1.826436472050353</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.664939111825527</v>
@@ -10334,7 +10070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.816405173661379</v>
+        <v>1.842725398297278</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.700125224046286</v>
@@ -10423,7 +10159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.814639547576069</v>
+        <v>1.836280937588517</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.633355961758078</v>
@@ -10512,7 +10248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.826722771983794</v>
+        <v>1.844881783913915</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.675817046405379</v>
@@ -10601,7 +10337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.902522471885072</v>
+        <v>1.906271315334109</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.611545547063391</v>
@@ -10690,7 +10426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.904337252140112</v>
+        <v>1.906444026032288</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.432712340307864</v>
@@ -10779,7 +10515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.904828322831077</v>
+        <v>1.903207898945559</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.827050940081594</v>
@@ -10868,7 +10604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.910806402083191</v>
+        <v>1.908979867960467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.143132451009924</v>
@@ -10957,7 +10693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.907376309930915</v>
+        <v>1.903180103296285</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.335880905147123</v>
@@ -11046,7 +10782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.910408381774379</v>
+        <v>1.903261252936087</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.867863481554327</v>
@@ -11135,7 +10871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.910205502609169</v>
+        <v>1.899337514559948</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.621023793375423</v>
@@ -11224,7 +10960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.904946283434049</v>
+        <v>1.889638984434939</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.249080797849091</v>
@@ -11313,7 +11049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.897816661272327</v>
+        <v>1.874423848802984</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.974825964470426</v>
@@ -11402,7 +11138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.906585664779052</v>
+        <v>1.872899987618398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.957492233915352</v>
@@ -11491,7 +11227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.90386358249569</v>
+        <v>1.86775036438853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.647627653692246</v>
@@ -11580,7 +11316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.898369601923505</v>
+        <v>1.854921954633272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.893074102369978</v>
@@ -11669,7 +11405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.841588845669349</v>
+        <v>1.814499144779468</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.954203424617895</v>
@@ -11758,7 +11494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.844079965258117</v>
+        <v>1.823884854931091</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.8522134665896</v>
@@ -11847,7 +11583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.842175997401576</v>
+        <v>1.81926563126475</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.915685877951227</v>
@@ -11936,7 +11672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.832803124980398</v>
+        <v>1.812349704955318</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.838262945525727</v>
@@ -12025,7 +11761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.832402942743234</v>
+        <v>1.816352423697372</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.78784140899224</v>
@@ -12114,7 +11850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.831594585543012</v>
+        <v>1.815279750801591</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.896853005191191</v>
@@ -12203,7 +11939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.82185398912322</v>
+        <v>1.802984244303114</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.903058935857209</v>
@@ -12292,7 +12028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.820923441448195</v>
+        <v>1.803845693368968</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.811232289277949</v>
@@ -12381,7 +12117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.821776358480161</v>
+        <v>1.802745823376603</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.926677650129855</v>
@@ -12470,7 +12206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.813268644949869</v>
+        <v>1.795119941863424</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.842667812075975</v>
@@ -12559,7 +12295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.814070629953834</v>
+        <v>1.796407180402833</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.838973793313886</v>
@@ -12648,7 +12384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.811721824884043</v>
+        <v>1.797633197113148</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.068400159122123</v>
@@ -12737,7 +12473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.8154353031852</v>
+        <v>1.810224750999039</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.888524501228678</v>
@@ -12826,7 +12562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.821294689325811</v>
+        <v>1.813775720834232</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.739014810770308</v>
@@ -12915,7 +12651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.834489657234357</v>
+        <v>1.833813369516634</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.452533335389369</v>
@@ -13004,7 +12740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.880431849274648</v>
+        <v>1.872563164191476</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.069541615228737</v>
@@ -13093,7 +12829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.881681538274566</v>
+        <v>1.873084325097004</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.302131737603079</v>
@@ -13182,7 +12918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.885525302894525</v>
+        <v>1.873168145351565</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.659327135078073</v>
@@ -13271,7 +13007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.890334029172451</v>
+        <v>1.879246790391835</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.873488683242226</v>
@@ -13360,7 +13096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.888140885894519</v>
+        <v>1.876003891266071</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.125573244602466</v>
@@ -13449,7 +13185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.891456731095749</v>
+        <v>1.881384542317043</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.59881336021711</v>
@@ -13538,7 +13274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.902318062814422</v>
+        <v>1.89714527405934</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.003315508934156</v>
@@ -13627,7 +13363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.909504938212156</v>
+        <v>1.901624390479419</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.470750519528969</v>
@@ -13716,7 +13452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.915188967061819</v>
+        <v>1.908321867376617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.234879227844975</v>
@@ -13805,7 +13541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.912525412454584</v>
+        <v>1.905716568673565</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.996202191027987</v>
@@ -13894,7 +13630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.913959023682249</v>
+        <v>1.904170975479251</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.251735149013721</v>
@@ -13983,7 +13719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.912403922900277</v>
+        <v>1.901768824595661</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.561181652263135</v>
@@ -14072,7 +13808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.91227785255905</v>
+        <v>1.900652559942157</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.808547549217924</v>
@@ -14161,7 +13897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.906779971916073</v>
+        <v>1.897911540372069</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.20744285764173</v>
@@ -14250,7 +13986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.906483386321029</v>
+        <v>1.895701437479653</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.178660759597513</v>
@@ -14339,7 +14075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.907355930339811</v>
+        <v>1.895907509569064</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.806951811233991</v>
@@ -14428,7 +14164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.901999718810309</v>
+        <v>1.894133226410323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.359390656064735</v>
@@ -14517,7 +14253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.898114073305239</v>
+        <v>1.887674990219177</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.082263461459649</v>
@@ -14606,7 +14342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.85943197262297</v>
+        <v>1.85883394260431</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.878047484189217</v>
@@ -14695,7 +14431,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.855372516042424</v>
+        <v>1.851602901096407</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.942471666899993</v>
@@ -14784,7 +14520,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.855096014162255</v>
+        <v>1.85004383248158</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.012924101816219</v>
@@ -14873,7 +14609,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.778571848462801</v>
+        <v>1.788712950695188</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.334918959858933</v>
@@ -14962,7 +14698,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.740109316880115</v>
+        <v>1.745895871890364</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.324649396784699</v>
@@ -15051,7 +14787,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.709098259871897</v>
+        <v>1.721053248498194</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.306122388327758</v>
@@ -15140,7 +14876,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.70961384197661</v>
+        <v>1.723729772149958</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.301569792369347</v>
@@ -15229,7 +14965,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.705459157757264</v>
+        <v>1.719687620504915</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.223459543683302</v>
@@ -15318,7 +15054,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.704912643229382</v>
+        <v>1.716731428026978</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.234388902178617</v>
@@ -15407,7 +15143,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.707765746117262</v>
+        <v>1.71823884690052</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.316090147477872</v>
@@ -15496,7 +15232,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.707255102249741</v>
+        <v>1.718741753601547</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.287111034827923</v>
@@ -15585,7 +15321,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.696160821653694</v>
+        <v>1.70520922353059</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.292504313590102</v>
@@ -15674,7 +15410,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.66452525456132</v>
+        <v>1.67213498468935</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.291212683687768</v>
@@ -15763,7 +15499,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.669791848864897</v>
+        <v>1.6793527609202</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.350330515883801</v>
@@ -15852,7 +15588,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.697560248471774</v>
+        <v>1.708041659271223</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.27928775185893</v>
@@ -15941,7 +15677,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.713435398399515</v>
+        <v>1.722367482519107</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.327894992451406</v>
@@ -16030,7 +15766,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.722148053021427</v>
+        <v>1.731822858711793</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.396969306645323</v>
@@ -16119,7 +15855,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.718261793099618</v>
+        <v>1.724054785594626</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.285046347272455</v>
@@ -16208,7 +15944,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.776966382340017</v>
+        <v>1.76574297271799</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.348676949932904</v>
@@ -16297,7 +16033,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.826742407009166</v>
+        <v>1.810915819750438</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.514412216542013</v>
@@ -16386,7 +16122,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.827438719539324</v>
+        <v>1.808049760760054</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.495297037741404</v>
@@ -16475,7 +16211,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.833131001221837</v>
+        <v>1.814502974878322</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.55228579272578</v>
@@ -16564,7 +16300,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.836115505322601</v>
+        <v>1.815814034849609</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.533996906367999</v>
@@ -16653,7 +16389,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.835782884562405</v>
+        <v>1.816984324844867</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.479780234192745</v>
@@ -16742,7 +16478,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.838626948578558</v>
+        <v>1.818424249547493</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.401235963616658</v>
@@ -16831,7 +16567,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.839785799540772</v>
+        <v>1.82133650317599</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.631522094335466</v>
@@ -16920,7 +16656,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.873257001566578</v>
+        <v>1.849109231058981</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.302017753072908</v>
@@ -17009,7 +16745,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.903755491293884</v>
+        <v>1.881464088132493</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.451089724418871</v>
@@ -17098,7 +16834,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.89437253434951</v>
+        <v>1.870416090487792</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.293070737004577</v>
@@ -17187,7 +16923,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.895454527096494</v>
+        <v>1.864290051204025</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.753272297477104</v>
@@ -17276,7 +17012,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.892448386446067</v>
+        <v>1.862690360418007</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.664668379629384</v>
@@ -17365,7 +17101,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.884312727385311</v>
+        <v>1.858975385375057</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.295375353911431</v>
@@ -17454,7 +17190,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.888489780184638</v>
+        <v>1.861418221155886</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.238245328022828</v>
@@ -17543,7 +17279,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.889944767269072</v>
+        <v>1.862722393751992</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.47243255581345</v>
@@ -17632,7 +17368,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.887294177094452</v>
+        <v>1.855508424939877</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.054635894449447</v>
@@ -17918,7 +17654,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.733532697283587</v>
+        <v>1.740148235181446</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.711427333030283</v>
@@ -18007,7 +17743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.736594963879905</v>
+        <v>1.742816813746548</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.691010122954339</v>
@@ -18096,7 +17832,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.725690057898331</v>
+        <v>1.733674538435278</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.740184338290169</v>
@@ -18185,7 +17921,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.735347451232521</v>
+        <v>1.743676160796395</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.421917220085478</v>
@@ -18274,7 +18010,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752323889803728</v>
+        <v>1.760608712677968</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.81964797738871</v>
@@ -18363,7 +18099,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.720424124029065</v>
+        <v>1.724432435585797</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.229842839792486</v>
@@ -18452,7 +18188,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.749884554160287</v>
+        <v>1.745504061277045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.606958187167812</v>
@@ -18541,7 +18277,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76140977143935</v>
+        <v>1.757223512511649</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.438828048461461</v>
@@ -18630,7 +18366,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.75768823440625</v>
+        <v>1.747033989717829</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.247273254205358</v>
@@ -18719,7 +18455,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.755046648136357</v>
+        <v>1.741703549046359</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.18931138380058</v>
@@ -18808,7 +18544,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.743031224996754</v>
+        <v>1.72781933709717</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.468218451380003</v>
@@ -18897,7 +18633,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.739085732453751</v>
+        <v>1.718738298097756</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.346859241342773</v>
@@ -18986,7 +18722,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.736726780217833</v>
+        <v>1.716299519868668</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.265953192646672</v>
@@ -19075,7 +18811,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730917535938206</v>
+        <v>1.718689266945843</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.276963164034826</v>
@@ -19164,7 +18900,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.729430229429217</v>
+        <v>1.720023798536187</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.900757340996959</v>
@@ -19253,7 +18989,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.714274560916348</v>
+        <v>1.707482884387203</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.222578036944551</v>
@@ -19342,7 +19078,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690098563029178</v>
+        <v>1.68901897731537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.241594312218793</v>
@@ -19431,7 +19167,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.706188317955366</v>
+        <v>1.702057421659258</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.236322915351688</v>
@@ -19520,7 +19256,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.7064467992938</v>
+        <v>1.699022638597213</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.232821593665923</v>
@@ -19609,7 +19345,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705868430405066</v>
+        <v>1.700678420193585</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.096963735105744</v>
@@ -19698,7 +19434,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.708176763820014</v>
+        <v>1.699378591416903</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.077818820725695</v>
@@ -19787,7 +19523,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.689889446494525</v>
+        <v>1.685725501939649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.147736132633601</v>
@@ -19876,7 +19612,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684870859466555</v>
+        <v>1.677091771026969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.134013134588511</v>
@@ -19965,7 +19701,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.684812907904366</v>
+        <v>1.681877932573919</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.381643823414805</v>
@@ -20054,7 +19790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.688840329239196</v>
+        <v>1.686130363943397</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.222643784907196</v>
@@ -20143,7 +19879,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694920567991868</v>
+        <v>1.695270812871411</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.27636415168418</v>
@@ -20232,7 +19968,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695149124706667</v>
+        <v>1.693109803403399</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.289007555203192</v>
@@ -20321,7 +20057,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.690470699779842</v>
+        <v>1.68473038457927</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.973389589080065</v>
@@ -20410,7 +20146,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.699064398183163</v>
+        <v>1.686884868392772</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.376306807531856</v>
@@ -20499,7 +20235,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695867668434788</v>
+        <v>1.686276837402525</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.235201803922623</v>
@@ -20588,7 +20324,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.712618680803913</v>
+        <v>1.700804831445193</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.169088705245857</v>
@@ -20677,7 +20413,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.737230353841847</v>
+        <v>1.718294079907457</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.252136776970948</v>
@@ -20766,7 +20502,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733518537989445</v>
+        <v>1.711666790515988</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.442988483524672</v>
@@ -20855,7 +20591,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711773262247253</v>
+        <v>1.696505153825884</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.029708585496791</v>
@@ -20944,7 +20680,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.71394713834657</v>
+        <v>1.691311671368589</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.212970766341942</v>
@@ -21033,7 +20769,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.713691307517386</v>
+        <v>1.689126253167668</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.956383596059132</v>
@@ -21122,7 +20858,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.726022321914007</v>
+        <v>1.701696275674234</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.145763481951998</v>
@@ -21211,7 +20947,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.728269434318082</v>
+        <v>1.702983337248005</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.215708887245603</v>
@@ -21300,7 +21036,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.71697195258846</v>
+        <v>1.692988248148434</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.102960704932276</v>
@@ -21389,7 +21125,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.718395833060249</v>
+        <v>1.695815662655497</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.168838252522324</v>
@@ -21478,7 +21214,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.721632200392742</v>
+        <v>1.697462761997448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.200600193655049</v>
@@ -21567,7 +21303,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.72024556786174</v>
+        <v>1.704868367337172</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.070475427241115</v>
@@ -21656,7 +21392,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.726760304865472</v>
+        <v>1.717150940783565</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.312741494159786</v>
@@ -21745,7 +21481,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.714484434932752</v>
+        <v>1.709141746819251</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.382074596401891</v>
@@ -21834,7 +21570,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703033162376025</v>
+        <v>1.695794497037081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.269900181294212</v>
@@ -21923,7 +21659,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69506795684179</v>
+        <v>1.688622911816296</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.338337159402587</v>
@@ -22012,7 +21748,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.687056951666762</v>
+        <v>1.680626897798362</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.016332885970468</v>
@@ -22101,7 +21837,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695358371060392</v>
+        <v>1.690218565027835</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.236209142461631</v>
@@ -22190,7 +21926,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705666186137508</v>
+        <v>1.692903865497881</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.252416083268919</v>
@@ -22279,7 +22015,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.712628931196976</v>
+        <v>1.702503113793091</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.154875353064731</v>
@@ -22368,7 +22104,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.731678265856681</v>
+        <v>1.7226975893959</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.135432220797933</v>
@@ -22457,7 +22193,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.724939156251505</v>
+        <v>1.719162438693872</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.0730469865948</v>
@@ -22546,7 +22282,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711178951713654</v>
+        <v>1.710127672409378</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.356113694929222</v>
@@ -22635,7 +22371,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.718716728132562</v>
+        <v>1.715834177487294</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.37687751355302</v>
@@ -22724,7 +22460,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.720453128916532</v>
+        <v>1.715040283263736</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.229508150993902</v>
@@ -22813,7 +22549,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.711915806395724</v>
+        <v>1.699972891434432</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.179466054865434</v>
@@ -22902,7 +22638,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.698598217790139</v>
+        <v>1.690383731966666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.301416815908325</v>
@@ -22991,7 +22727,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.686969036589983</v>
+        <v>1.686779063096924</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.441292391266911</v>
@@ -23080,7 +22816,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.699295301396364</v>
+        <v>1.700154246309104</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.449948181842737</v>
@@ -23169,7 +22905,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.702512959257158</v>
+        <v>1.706552336544469</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.399623174987169</v>
@@ -23258,7 +22994,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.701187311708831</v>
+        <v>1.703573901563629</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.262940085224217</v>
@@ -23347,7 +23083,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.696637653930875</v>
+        <v>1.700458759276746</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.427888738880731</v>
@@ -23436,7 +23172,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687702895787667</v>
+        <v>1.695051750158684</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.052400592571834</v>
@@ -23525,7 +23261,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.681345997050384</v>
+        <v>1.69248480306683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.424927099498993</v>
@@ -23614,7 +23350,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.660714317551379</v>
+        <v>1.677495537604877</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.280977683263705</v>
@@ -23703,7 +23439,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.656438882521567</v>
+        <v>1.674960343892498</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.218428654975797</v>
@@ -23792,7 +23528,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.646083770717672</v>
+        <v>1.665668662706007</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.161799812189485</v>
@@ -23881,7 +23617,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.652108420435778</v>
+        <v>1.674132930258005</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.364825163828402</v>
@@ -23970,7 +23706,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.630254272495712</v>
+        <v>1.657152526254288</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.392625323585011</v>
@@ -24059,7 +23795,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.622992746772885</v>
+        <v>1.648722861553243</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.405746178273786</v>
@@ -24148,7 +23884,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.625582177437624</v>
+        <v>1.653588989114836</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.848664864684341</v>
@@ -24237,7 +23973,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.611622707653861</v>
+        <v>1.639822526278849</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.910047686645966</v>
@@ -24326,7 +24062,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.613238252443637</v>
+        <v>1.639046965416498</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.127698874864451</v>
@@ -24415,7 +24151,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.601446007826295</v>
+        <v>1.623507406932531</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.366716938429219</v>
@@ -24504,7 +24240,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.583975915599246</v>
+        <v>1.607328706439808</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.261493302270304</v>
@@ -24593,7 +24329,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.574539062655443</v>
+        <v>1.598690028886505</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.316391463887042</v>
@@ -24682,7 +24418,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.569875727554978</v>
+        <v>1.586620096453537</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.744005501813512</v>
@@ -24771,7 +24507,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.5459101390909</v>
+        <v>1.565593398889631</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.955793436726744</v>
@@ -24860,7 +24596,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.537427260200044</v>
+        <v>1.554559708314161</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.952435549115745</v>
@@ -24949,7 +24685,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.535916703442888</v>
+        <v>1.554905390120244</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.920431818745024</v>
@@ -25038,7 +24774,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.518658600888816</v>
+        <v>1.537209154218203</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.045925652631602</v>
@@ -25127,7 +24863,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.5169216904576</v>
+        <v>1.53352409326711</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.768352484128891</v>
@@ -25216,7 +24952,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.506255944814394</v>
+        <v>1.525226536406648</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.019657149150257</v>
@@ -25305,7 +25041,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.524779598779261</v>
+        <v>1.540692170828698</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.994284014097877</v>
@@ -25394,7 +25130,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.518935018597868</v>
+        <v>1.534772389242002</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.916535997659929</v>
@@ -25483,7 +25219,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.504414980875937</v>
+        <v>1.521161652237293</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.713018705830788</v>
@@ -25572,7 +25308,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.511134450146425</v>
+        <v>1.524376594735066</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.912798317493866</v>
@@ -25858,7 +25594,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.744119064865065</v>
+        <v>1.757177616355022</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.25365065492749</v>
@@ -25947,7 +25683,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.761930611034199</v>
+        <v>1.77555396704636</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.12835475445438</v>
@@ -26036,7 +25772,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.749588666631908</v>
+        <v>1.771316940995089</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.745027442068952</v>
@@ -26125,7 +25861,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.748033091933138</v>
+        <v>1.778682915642936</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.041250797811651</v>
@@ -26214,7 +25950,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.733317456611119</v>
+        <v>1.762913440200838</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.98151700946237</v>
@@ -26303,7 +26039,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.706534496345115</v>
+        <v>1.744542547711572</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.705594691874658</v>
@@ -26392,7 +26128,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.706435870762283</v>
+        <v>1.746662376063034</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.945666222192374</v>
@@ -26481,7 +26217,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.736432752979294</v>
+        <v>1.773425057472239</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.671277201213926</v>
@@ -26570,7 +26306,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.737600972857825</v>
+        <v>1.772373153608104</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.720941694889826</v>
@@ -26659,7 +26395,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760527920265353</v>
+        <v>1.79083989771277</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.884066219204231</v>
@@ -26748,7 +26484,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.748259138112919</v>
+        <v>1.777616950288503</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.703410762223672</v>
@@ -26837,7 +26573,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.746881149856355</v>
+        <v>1.777331474830966</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.87221566617111</v>
@@ -26926,7 +26662,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.741359314241168</v>
+        <v>1.770957989769189</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.80685490324497</v>
@@ -27015,7 +26751,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.742933336657186</v>
+        <v>1.772793461880359</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.880068724366731</v>
@@ -27104,7 +26840,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.739618640921128</v>
+        <v>1.765295578349485</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.85981401936307</v>
@@ -27193,7 +26929,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.734703454581638</v>
+        <v>1.759408444315187</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.649891827756288</v>
@@ -27282,7 +27018,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.737334730961004</v>
+        <v>1.751093418214994</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.827737886120318</v>
@@ -27371,7 +27107,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.777326397444235</v>
+        <v>1.78008990973909</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.370441505940821</v>
@@ -27460,7 +27196,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.764771868626934</v>
+        <v>1.762582946909836</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.264312258200405</v>
@@ -27549,7 +27285,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.765708129966053</v>
+        <v>1.762939658591546</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.647127919933021</v>
@@ -27638,7 +27374,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.766955121918996</v>
+        <v>1.763143466810553</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.224528897175748</v>
@@ -27727,7 +27463,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.770739477254436</v>
+        <v>1.7631313084534</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.162949195186937</v>
@@ -27816,7 +27552,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.76986482428955</v>
+        <v>1.762120104694795</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.124605855133399</v>
@@ -27905,7 +27641,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.760037369822816</v>
+        <v>1.757160701323895</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.108279702839802</v>
@@ -27994,7 +27730,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.761993673587509</v>
+        <v>1.755781160030898</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.135039277117</v>
@@ -28083,7 +27819,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.776236742205725</v>
+        <v>1.765076258333494</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.850423492709327</v>
@@ -28172,7 +27908,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.759703711103234</v>
+        <v>1.75460632122441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.026738773071544</v>
@@ -28261,7 +27997,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.755844340508584</v>
+        <v>1.752137872557543</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.184875455857343</v>
@@ -28350,7 +28086,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.740379000653358</v>
+        <v>1.734909760963189</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.088601129282041</v>
@@ -28439,7 +28175,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.730379679138457</v>
+        <v>1.732273817677638</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.046727706253367</v>
@@ -28528,7 +28264,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.736124524119335</v>
+        <v>1.737498757035204</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.970442006547588</v>
@@ -28617,7 +28353,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.743697640855497</v>
+        <v>1.753203424889512</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.943329795028803</v>
@@ -28706,7 +28442,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.739862069745773</v>
+        <v>1.754664570702624</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.327285026022844</v>
@@ -28795,7 +28531,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.765939100280862</v>
+        <v>1.777583464275084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.595988378615914</v>
@@ -28884,7 +28620,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78629102550191</v>
+        <v>1.795048063638795</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.308322805398991</v>
@@ -28973,7 +28709,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.780482007398818</v>
+        <v>1.791757174768398</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.019973672133049</v>
@@ -29062,7 +28798,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.78090506510256</v>
+        <v>1.78754058728939</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.080036244826984</v>
@@ -29151,7 +28887,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.783578773929165</v>
+        <v>1.790327071675611</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.403812260694785</v>
@@ -29240,7 +28976,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.783260123398019</v>
+        <v>1.784292864404766</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.828304776932465</v>
@@ -29329,7 +29065,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.780865196175809</v>
+        <v>1.786808669092534</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.429984600477212</v>
@@ -29418,7 +29154,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786407387866506</v>
+        <v>1.794347835677785</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.40648394533314</v>
@@ -29507,7 +29243,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.809822200130214</v>
+        <v>1.806634617656003</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.662355891460765</v>
@@ -29596,7 +29332,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.810280966107965</v>
+        <v>1.811022712734004</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.585785706151144</v>
@@ -29685,7 +29421,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.823871541805973</v>
+        <v>1.822523565098424</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.087920110481875</v>
@@ -29774,7 +29510,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.832540983638616</v>
+        <v>1.829853914105479</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.709067826179985</v>
@@ -29863,7 +29599,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.81192496270419</v>
+        <v>1.815250300984948</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.351181229652442</v>
@@ -29952,7 +29688,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.792001087160885</v>
+        <v>1.792533828279915</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.364093708345441</v>
@@ -30041,7 +29777,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.774077589476403</v>
+        <v>1.776167786532569</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.32913023082449</v>
@@ -30130,7 +29866,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.770197647041435</v>
+        <v>1.777936138003373</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.209821847285757</v>
@@ -30219,7 +29955,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.767198894114886</v>
+        <v>1.771662788226083</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.396558417709638</v>
@@ -30308,7 +30044,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.757351021321113</v>
+        <v>1.766306768516633</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.12130125621886</v>
@@ -30397,7 +30133,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.755416034181411</v>
+        <v>1.763576363544968</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.4659751390595</v>
@@ -30486,7 +30222,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737754425290535</v>
+        <v>1.751954712190456</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.116404296651917</v>
@@ -30575,7 +30311,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.736689307180153</v>
+        <v>1.75198788956453</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.178865540346707</v>
@@ -30664,7 +30400,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.734729252847188</v>
+        <v>1.748022485825696</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.147151191731525</v>
@@ -30753,7 +30489,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.705979129355317</v>
+        <v>1.720889619928042</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.306548832244435</v>
@@ -30842,7 +30578,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.673195104727802</v>
+        <v>1.681999686800564</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.682916464903763</v>
@@ -30931,7 +30667,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.642559391352114</v>
+        <v>1.656231062043646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.564246473642197</v>
@@ -31020,7 +30756,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.641912258647648</v>
+        <v>1.656653019439027</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.598708863422584</v>
@@ -31109,7 +30845,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.634274734969928</v>
+        <v>1.650695882440779</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.729579132552564</v>
@@ -31198,7 +30934,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652764009196076</v>
+        <v>1.658596089980178</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.680926774891779</v>
@@ -31287,7 +31023,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.65262534152375</v>
+        <v>1.662948454254284</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.665273170547155</v>
@@ -31376,7 +31112,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.663733724073548</v>
+        <v>1.672515524801834</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.617920741538103</v>
@@ -31465,7 +31201,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.654346339544127</v>
+        <v>1.656711703006195</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.621648980558515</v>
@@ -31554,7 +31290,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.64207797253322</v>
+        <v>1.645804355620247</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.422402112445189</v>
@@ -31643,7 +31379,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.637002795412132</v>
+        <v>1.642409850186514</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.638258932762151</v>
@@ -31732,7 +31468,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.645250034011064</v>
+        <v>1.654233455220396</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.75276754892142</v>
@@ -31821,7 +31557,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.660735077673021</v>
+        <v>1.666839643853051</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.895989863095596</v>
@@ -31910,7 +31646,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.668966756111714</v>
+        <v>1.6736005204489</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.668781553902278</v>
@@ -31999,7 +31735,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.661351415212773</v>
+        <v>1.671166994013273</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.691911164343647</v>
@@ -32088,7 +31824,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.672662843887738</v>
+        <v>1.681378938949554</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.609769029007012</v>
@@ -32177,7 +31913,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.701963127152353</v>
+        <v>1.709149308505564</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.175502994340927</v>
@@ -32266,7 +32002,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.709892667963056</v>
+        <v>1.717431125136053</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.256295473360661</v>
@@ -32355,7 +32091,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.706693920470179</v>
+        <v>1.713921542033818</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.21194175257626</v>
@@ -32444,7 +32180,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.71747369607369</v>
+        <v>1.720823129515578</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.123445255477632</v>
@@ -32533,7 +32269,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.715661427623014</v>
+        <v>1.722599548380897</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.851987466931732</v>
@@ -32622,7 +32358,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.703286907693473</v>
+        <v>1.714161125799198</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.022273910870086</v>
@@ -32711,7 +32447,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.682905254007917</v>
+        <v>1.695691267311118</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.224019597479134</v>
@@ -32800,7 +32536,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.700725273829915</v>
+        <v>1.712561202647968</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.618545125392171</v>
@@ -32889,7 +32625,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.709612826000644</v>
+        <v>1.725054527659811</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.822499186768404</v>
@@ -32978,7 +32714,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.709481119905856</v>
+        <v>1.728164016997539</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.966909409524304</v>
@@ -33067,7 +32803,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.713764161430318</v>
+        <v>1.72852496072831</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.040757503652576</v>
@@ -33156,7 +32892,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.709455277706098</v>
+        <v>1.726458898221132</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.971375560213614</v>
@@ -33245,7 +32981,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.701768793655661</v>
+        <v>1.718901160331808</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.117083623108426</v>
@@ -33334,7 +33070,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.704238596622395</v>
+        <v>1.712201051570044</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.191515398137627</v>
@@ -33423,7 +33159,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.710983635122726</v>
+        <v>1.72157163831911</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.900521071011879</v>
@@ -33512,7 +33248,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.728891443345535</v>
+        <v>1.732430258625582</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.917827754071145</v>
@@ -33798,7 +33534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.795390033275123</v>
+        <v>1.764638012333412</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.762569284788474</v>
@@ -33887,7 +33623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.815261737367384</v>
+        <v>1.781302926510183</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.72501972597494</v>
@@ -33976,7 +33712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.820063860814007</v>
+        <v>1.79402298925775</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.584551032642031</v>
@@ -34065,7 +33801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.823258073528395</v>
+        <v>1.805984630382503</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.411070734734852</v>
@@ -34154,7 +33890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.814649944325248</v>
+        <v>1.793748139679979</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.296839474761976</v>
@@ -34243,7 +33979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.806550257935993</v>
+        <v>1.791432976675883</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.601203175587589</v>
@@ -34332,7 +34068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.812187801313249</v>
+        <v>1.792154528372878</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.927263302143294</v>
@@ -34421,7 +34157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.815692863330709</v>
+        <v>1.79285437861458</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.668834127651205</v>
@@ -34510,7 +34246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.820911514977128</v>
+        <v>1.800243389203108</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.675001890298354</v>
@@ -34599,7 +34335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.821963047959313</v>
+        <v>1.79773035141235</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.887767089254097</v>
@@ -34688,7 +34424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.81800317233028</v>
+        <v>1.794951846993427</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.760723387986201</v>
@@ -34777,7 +34513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.819972144930244</v>
+        <v>1.795943213590982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.364939887423924</v>
@@ -34866,7 +34602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.828729980683635</v>
+        <v>1.805953750532681</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.72700782399176</v>
@@ -34955,7 +34691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.829839688525344</v>
+        <v>1.804074302657089</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.396009015842342</v>
@@ -35044,7 +34780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.836733745219845</v>
+        <v>1.808059663000898</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.628899974497688</v>
@@ -35133,7 +34869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833810780565089</v>
+        <v>1.79842993560415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.760112590831514</v>
@@ -35222,7 +34958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.828392563876765</v>
+        <v>1.789521542887282</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.398063135375144</v>
@@ -35311,7 +35047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.830628064555814</v>
+        <v>1.787304138407457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.607308016366421</v>
@@ -35400,7 +35136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.828978877183813</v>
+        <v>1.781970419409961</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.510335663528611</v>
@@ -35489,7 +35225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.830162380161211</v>
+        <v>1.779863946088862</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.658902996375636</v>
@@ -35578,7 +35314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.827530511679868</v>
+        <v>1.777056124772745</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.998397107001042</v>
@@ -35667,7 +35403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.826483514015595</v>
+        <v>1.782402157389943</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.612628436714428</v>
@@ -35756,7 +35492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.828032650580349</v>
+        <v>1.784486769774613</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.732067616243948</v>
@@ -35845,7 +35581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.803865340053464</v>
+        <v>1.765216922438745</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.698083184042317</v>
@@ -35934,7 +35670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.78894556341943</v>
+        <v>1.754118100443512</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.569599812037009</v>
@@ -36023,7 +35759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.788477802043197</v>
+        <v>1.754640053436598</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.569864247463436</v>
@@ -36112,7 +35848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.779260898250163</v>
+        <v>1.74838179937545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.574454659103541</v>
@@ -36201,7 +35937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772627725319992</v>
+        <v>1.744199814885512</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.341054357742248</v>
@@ -36290,7 +36026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.767733518824045</v>
+        <v>1.739114748140802</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.225239156133035</v>
@@ -36379,7 +36115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.76827651724874</v>
+        <v>1.745839249169075</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.463394831379444</v>
@@ -36468,7 +36204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.769432047704929</v>
+        <v>1.746276130617594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.352631430626651</v>
@@ -36557,7 +36293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.771792607021577</v>
+        <v>1.757150718565492</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.216798211021085</v>
@@ -36646,7 +36382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.780887118172367</v>
+        <v>1.76465577460187</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.548693960818629</v>
@@ -36735,7 +36471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.776756297489553</v>
+        <v>1.763785035807091</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.309898345697699</v>
@@ -36824,7 +36560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.79516468476008</v>
+        <v>1.786172151476633</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.418321446579199</v>
@@ -36913,7 +36649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.805221043771626</v>
+        <v>1.795980959310169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.880889302537173</v>
@@ -37002,7 +36738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.809501306275105</v>
+        <v>1.804652761414468</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.513851297208286</v>
@@ -37091,7 +36827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.811689779472619</v>
+        <v>1.811492357074227</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.788604020902009</v>
@@ -37180,7 +36916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.833637275018279</v>
+        <v>1.830558273016841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.81404712828161</v>
@@ -37269,7 +37005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.846240572488241</v>
+        <v>1.842244832859123</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.526625965232215</v>
@@ -37358,7 +37094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.845451690169929</v>
+        <v>1.837655910208638</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.475996791192518</v>
@@ -37447,7 +37183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.860073066810946</v>
+        <v>1.846829988387217</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.748033709905847</v>
@@ -37536,7 +37272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.869457936090834</v>
+        <v>1.854856932339827</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.688604391902342</v>
@@ -37625,7 +37361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.872374998425416</v>
+        <v>1.855127733837125</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.677730431548548</v>
@@ -37714,7 +37450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.868015019790381</v>
+        <v>1.841784728962182</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.571876511610424</v>
@@ -37803,7 +37539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.870825552912021</v>
+        <v>1.848757922925592</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.784875678307396</v>
@@ -37892,7 +37628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.874769804421294</v>
+        <v>1.844457732088841</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.00509495464819</v>
@@ -37981,7 +37717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.872318322188649</v>
+        <v>1.841650221064511</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.404330647598424</v>
@@ -38070,7 +37806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.858008639647112</v>
+        <v>1.830887961985088</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.581594649808689</v>
@@ -38159,7 +37895,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.854083079698387</v>
+        <v>1.824304105303456</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.129507487213905</v>
@@ -38248,7 +37984,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.850896537789538</v>
+        <v>1.818545074136191</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.844174380019688</v>
@@ -38337,7 +38073,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.844652648373914</v>
+        <v>1.808027412388568</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.901491792694788</v>
@@ -38426,7 +38162,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.846258698103954</v>
+        <v>1.80648856402444</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.12203551014481</v>
@@ -38515,7 +38251,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.839921386419666</v>
+        <v>1.798071332083664</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.084686317467204</v>
@@ -38604,7 +38340,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.839960027803272</v>
+        <v>1.797859930938272</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.841338962340613</v>
@@ -38693,7 +38429,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.835199410176655</v>
+        <v>1.793688240915099</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.858182657834813</v>
@@ -38782,7 +38518,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.838240871846412</v>
+        <v>1.796901441494612</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.599084936687889</v>
@@ -38871,7 +38607,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.832272124987041</v>
+        <v>1.793147469980802</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.873636573271567</v>
@@ -38960,7 +38696,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.828849619443626</v>
+        <v>1.793875907950378</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.686957787513307</v>
@@ -39049,7 +38785,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.832467018017871</v>
+        <v>1.800314981927073</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.753338073561941</v>
@@ -39138,7 +38874,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.831739722363171</v>
+        <v>1.792845658169029</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.87235303325812</v>
@@ -39227,7 +38963,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.82280236846787</v>
+        <v>1.790442230227817</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.950567654009864</v>
@@ -39316,7 +39052,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.813181710288592</v>
+        <v>1.785706154722912</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.917318412859371</v>
@@ -39405,7 +39141,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.826025437083608</v>
+        <v>1.795346843144753</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.428663787042351</v>
@@ -39494,7 +39230,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.819867275097661</v>
+        <v>1.790434937129459</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.789944747078172</v>
@@ -39583,7 +39319,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.822860403468114</v>
+        <v>1.800049798223255</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.216878626938994</v>
@@ -39672,7 +39408,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.830857228601564</v>
+        <v>1.806114026353473</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.597150925817024</v>
@@ -39761,7 +39497,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.834717854945041</v>
+        <v>1.80733051527592</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.845785873356827</v>
@@ -39850,7 +39586,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.841004896227993</v>
+        <v>1.815108871530984</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.373192894194558</v>
@@ -39939,7 +39675,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.841874037002039</v>
+        <v>1.818292189889233</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.363795276459062</v>
@@ -40028,7 +39764,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.842877794818081</v>
+        <v>1.816314509335027</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.736968527649964</v>
@@ -40117,7 +39853,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.838187670694117</v>
+        <v>1.817697405363147</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.481599513543456</v>
@@ -40206,7 +39942,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.834145447572536</v>
+        <v>1.810359671508257</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.511969404197913</v>
@@ -40295,7 +40031,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.826965306417497</v>
+        <v>1.804284995328088</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.421727136980619</v>
@@ -40384,7 +40120,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.823436969196969</v>
+        <v>1.798067048260332</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.363860453035932</v>
@@ -40473,7 +40209,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.815838691135725</v>
+        <v>1.796675298992063</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.715244913449209</v>
@@ -40562,7 +40298,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.828250671161808</v>
+        <v>1.801911739439583</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.609651210136112</v>
@@ -40651,7 +40387,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.836982592788865</v>
+        <v>1.808623046160773</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.297560142626722</v>
@@ -40740,7 +40476,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.845291525164954</v>
+        <v>1.809349831830247</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.369793992854922</v>
@@ -40829,7 +40565,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.847987601915509</v>
+        <v>1.814529227424893</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.728028190114103</v>
@@ -40918,7 +40654,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.849758837310878</v>
+        <v>1.814843768941581</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.574252940619514</v>
@@ -41007,7 +40743,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.8459145883853</v>
+        <v>1.812748214212191</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.172191835175172</v>
@@ -41096,7 +40832,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.842673326244381</v>
+        <v>1.814291278534983</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.178681186500463</v>
@@ -41185,7 +40921,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.844038914743767</v>
+        <v>1.812536860093789</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.931612571467987</v>
@@ -41274,7 +41010,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.831799641065645</v>
+        <v>1.799218919726165</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.660952820518104</v>
@@ -41363,7 +41099,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.836032178714539</v>
+        <v>1.806166496127827</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.746685482198968</v>
@@ -41452,7 +41188,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.83601116515381</v>
+        <v>1.802397159429793</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.950187119977643</v>
@@ -41738,7 +41474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.676802216957705</v>
+        <v>1.679522966196297</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.120430646690057</v>
@@ -41827,7 +41563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.683284398997638</v>
+        <v>1.684410486325971</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.254828925083012</v>
@@ -41916,7 +41652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.688266203934638</v>
+        <v>1.688305237864587</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.78542083704683</v>
@@ -42005,7 +41741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.69932064572136</v>
+        <v>1.704014078164068</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.824338320441175</v>
@@ -42094,7 +41830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.693028207741206</v>
+        <v>1.699628759793082</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.747608505234252</v>
@@ -42183,7 +41919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.677554744537434</v>
+        <v>1.684533043975081</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.71427214226062</v>
@@ -42272,7 +42008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.673190702303525</v>
+        <v>1.677536488044459</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.902994786294575</v>
@@ -42361,7 +42097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.681654312730768</v>
+        <v>1.686312948102857</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.998117090708777</v>
@@ -42450,7 +42186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.666353723420519</v>
+        <v>1.671818196071303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.04978189304606</v>
@@ -42539,7 +42275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673561082888986</v>
+        <v>1.678111653740423</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.225628810837207</v>
@@ -42628,7 +42364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670023651238747</v>
+        <v>1.676429870217946</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.990494531188885</v>
@@ -42717,7 +42453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.678580008648711</v>
+        <v>1.682380849984924</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.050337213451676</v>
@@ -42806,7 +42542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.673938039541957</v>
+        <v>1.678483593017631</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.287907893422789</v>
@@ -42895,7 +42631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68122696941381</v>
+        <v>1.688549734404233</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.303379652476535</v>
@@ -42984,7 +42720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.692561477572017</v>
+        <v>1.690649977103567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.825333923626636</v>
@@ -43073,7 +42809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692829115483026</v>
+        <v>1.691737850311019</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.012697229594811</v>
@@ -43162,7 +42898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.704459771007804</v>
+        <v>1.699323993827707</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.342398325759399</v>
@@ -43251,7 +42987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.723915222165117</v>
+        <v>1.714232159258364</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.432500681667255</v>
@@ -43340,7 +43076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.730100718257197</v>
+        <v>1.716607823302188</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.768992929198759</v>
@@ -43429,7 +43165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737082421814385</v>
+        <v>1.728913375706742</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.504485384120205</v>
@@ -43518,7 +43254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.741466616833225</v>
+        <v>1.732680024806949</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.364375731565332</v>
@@ -43607,7 +43343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.733762238587714</v>
+        <v>1.730019468218826</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.577338743682285</v>
@@ -43696,7 +43432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.750289055005878</v>
+        <v>1.740576044614186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.197136981525903</v>
@@ -43785,7 +43521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.751225840765683</v>
+        <v>1.742773330993254</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.925682693242691</v>
@@ -43874,7 +43610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.741186152518429</v>
+        <v>1.732773570552532</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.917213936505982</v>
@@ -43963,7 +43699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.736923819675634</v>
+        <v>1.727418563876662</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.829105446522769</v>
@@ -44052,7 +43788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.726935279412492</v>
+        <v>1.720142677371609</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.126864133891503</v>
@@ -44141,7 +43877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.72362561332204</v>
+        <v>1.717022348152744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.734549130766438</v>
@@ -44230,7 +43966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.718800255247145</v>
+        <v>1.711855788448566</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.093652645105132</v>
@@ -44319,7 +44055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.718711490870819</v>
+        <v>1.714396979106885</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.899724132140578</v>
@@ -44408,7 +44144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.722403396712753</v>
+        <v>1.715414772070661</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.065339104857466</v>
@@ -44497,7 +44233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72089871188474</v>
+        <v>1.718864807010441</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.966935400429196</v>
@@ -44586,7 +44322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.713114469597071</v>
+        <v>1.714607191367863</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.442227345058839</v>
@@ -44675,7 +44411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.692663842040497</v>
+        <v>1.698202087523182</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.969004164430247</v>
@@ -44764,7 +44500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.677843086561168</v>
+        <v>1.675437901507981</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.076478789390006</v>
@@ -44853,7 +44589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676990959365096</v>
+        <v>1.672607068373819</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.238646656529971</v>
@@ -44942,7 +44678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.687034874424276</v>
+        <v>1.676394678689271</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.262136314233622</v>
@@ -45031,7 +44767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.689446821149045</v>
+        <v>1.680157214414529</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.356464425755268</v>
@@ -45120,7 +44856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.691284625275364</v>
+        <v>1.67999415154748</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.178672795245792</v>
@@ -45209,7 +44945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696891980752276</v>
+        <v>1.6826909065886</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.472230009360629</v>
@@ -45298,7 +45034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.691279316374549</v>
+        <v>1.679911883131157</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.18291896658545</v>
@@ -45387,7 +45123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.701680960986301</v>
+        <v>1.692194958150255</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.230239548318858</v>
@@ -45476,7 +45212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.708066725997281</v>
+        <v>1.693478252953452</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.031765862837031</v>
@@ -45565,7 +45301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708975224531045</v>
+        <v>1.699167755431247</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.296655507114976</v>
@@ -45654,7 +45390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705463830578558</v>
+        <v>1.69817916465835</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.033353310669984</v>
@@ -45743,7 +45479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.708908730211661</v>
+        <v>1.702811418118127</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.997429344963602</v>
@@ -45832,7 +45568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.709994839286156</v>
+        <v>1.701122274200562</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.327037523571369</v>
@@ -45921,7 +45657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.714509451919646</v>
+        <v>1.703915555199838</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.398484489822053</v>
@@ -46010,7 +45746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.722742673020649</v>
+        <v>1.706516117395723</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.424943242386048</v>
@@ -46099,7 +45835,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.735199192966776</v>
+        <v>1.721645191594877</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.449544912814787</v>
@@ -46188,7 +45924,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.736692800432323</v>
+        <v>1.723146361028052</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.448157800055216</v>
@@ -46277,7 +46013,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.735965248309952</v>
+        <v>1.724566231970125</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.064091467030756</v>
@@ -46366,7 +46102,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.712937074027086</v>
+        <v>1.709939993138764</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.11411644540807</v>
@@ -46455,7 +46191,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.708498534634116</v>
+        <v>1.707503043937108</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.033004645618365</v>
@@ -46544,7 +46280,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.728467180219241</v>
+        <v>1.729053445435788</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.946947343028429</v>
@@ -46633,7 +46369,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.720733858442675</v>
+        <v>1.72161371771245</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.319666734754598</v>
@@ -46722,7 +46458,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.716549524797693</v>
+        <v>1.716894475569285</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.013102665550664</v>
@@ -46811,7 +46547,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.706153235318562</v>
+        <v>1.716300255482955</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.09670626655723</v>
@@ -46900,7 +46636,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.702887023700898</v>
+        <v>1.708977633325976</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.013992303856996</v>
@@ -46989,7 +46725,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.704874360691154</v>
+        <v>1.708951394870868</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.040580889727622</v>
@@ -47078,7 +46814,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.699999536270018</v>
+        <v>1.706473165790502</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.858584222364056</v>
@@ -47167,7 +46903,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.708238413080871</v>
+        <v>1.717960265807563</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.286002862211219</v>
@@ -47256,7 +46992,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.706098509351059</v>
+        <v>1.721046897213993</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.209589109824147</v>
@@ -47345,7 +47081,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.702148622988236</v>
+        <v>1.715619606941507</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.194631359252206</v>
@@ -47434,7 +47170,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.692683806294535</v>
+        <v>1.704817901586567</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.214500308982322</v>
@@ -47523,7 +47259,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.699883262834456</v>
+        <v>1.712878621714939</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.180950971334018</v>
@@ -47612,7 +47348,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.701782751929286</v>
+        <v>1.713166447829019</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.788718010187658</v>
@@ -47701,7 +47437,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.719095133428122</v>
+        <v>1.722751118687213</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.897117370684847</v>
@@ -47790,7 +47526,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.714557110648883</v>
+        <v>1.715907168937455</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.257682552163993</v>
@@ -47879,7 +47615,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.709453964540771</v>
+        <v>1.710605237115669</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.205808620499815</v>
@@ -47968,7 +47704,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.707851077411954</v>
+        <v>1.706539599531945</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.003818261467211</v>
@@ -48057,7 +47793,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.712518537462355</v>
+        <v>1.707640135134195</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.180901187692615</v>
@@ -48146,7 +47882,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.717907642770345</v>
+        <v>1.713045388933701</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.336557047101548</v>
@@ -48235,7 +47971,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.728704325972583</v>
+        <v>1.723171347019591</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.459119020359147</v>
@@ -48324,7 +48060,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.730949278496088</v>
+        <v>1.724918615688225</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.191207717669805</v>
@@ -48413,7 +48149,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.723946730989818</v>
+        <v>1.716691623480749</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.360856560130232</v>
@@ -48502,7 +48238,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.713071168344039</v>
+        <v>1.700699750068073</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.384988688689466</v>
@@ -48591,7 +48327,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.710395081370903</v>
+        <v>1.696254042145805</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.428923303451729</v>
@@ -48680,7 +48416,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.72472220875819</v>
+        <v>1.70897090232551</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.652867264912443</v>
@@ -48769,7 +48505,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.721538997762446</v>
+        <v>1.708501957734632</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.060777635871081</v>
@@ -48858,7 +48594,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.7327270677274</v>
+        <v>1.721176694912803</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.246917508326872</v>
@@ -48947,7 +48683,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.7489834557019</v>
+        <v>1.736548831868589</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.50820879033342</v>
@@ -49036,7 +48772,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.753838351265174</v>
+        <v>1.744468603365464</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.554697294777606</v>
@@ -49125,7 +48861,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.764611316997742</v>
+        <v>1.755908336790966</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.368327175490415</v>
@@ -49214,7 +48950,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.770027074802384</v>
+        <v>1.76113926260084</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.490530533792498</v>
@@ -49303,7 +49039,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.78690931689629</v>
+        <v>1.778793101339829</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.323107175766679</v>
@@ -49392,7 +49128,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.784434666607189</v>
+        <v>1.77090180910082</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.228447955941451</v>
@@ -49678,7 +49414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.728440337744498</v>
+        <v>1.751052060161513</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.896342727501675</v>
@@ -49767,7 +49503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.74384218952984</v>
+        <v>1.769328243505006</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.769079985637883</v>
@@ -49856,7 +49592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.767155816032826</v>
+        <v>1.79429564554352</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.678968801232353</v>
@@ -49945,7 +49681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.77000514764176</v>
+        <v>1.799052840194373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.892897529839188</v>
@@ -50034,7 +49770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.783956542084002</v>
+        <v>1.813797221453108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.172365767658449</v>
@@ -50123,7 +49859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.789805191027491</v>
+        <v>1.827752019812527</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.799932534798598</v>
@@ -50212,7 +49948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.795552664245755</v>
+        <v>1.831737963908311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.778304500622968</v>
@@ -50301,7 +50037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.834057776171606</v>
+        <v>1.862889187981419</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.878335138227408</v>
@@ -50390,7 +50126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.830505281506882</v>
+        <v>1.857953720763768</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.322017239529525</v>
@@ -50479,7 +50215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.830156003816404</v>
+        <v>1.855368877558641</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.311169277399657</v>
@@ -50568,7 +50304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.825628488091521</v>
+        <v>1.845733356501622</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.414631917007206</v>
@@ -50657,7 +50393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.827007551660653</v>
+        <v>1.843072841806057</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.218497961159454</v>
@@ -50746,7 +50482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.83590843576657</v>
+        <v>1.85015549449077</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.773145172279012</v>
@@ -50835,7 +50571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.840893828010173</v>
+        <v>1.852073152028243</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.302207156888506</v>
@@ -50924,7 +50660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.839341784995356</v>
+        <v>1.851078951663159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.528349639945374</v>
@@ -51013,7 +50749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.840942911303536</v>
+        <v>1.846210490764706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.598403232935796</v>
@@ -51102,7 +50838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833216758510181</v>
+        <v>1.82983904690216</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.264023422652792</v>
@@ -51191,7 +50927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.825734948607322</v>
+        <v>1.817398235551325</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.004836875119783</v>
@@ -51280,7 +51016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.821802414002772</v>
+        <v>1.807823147592771</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.811183326598448</v>
@@ -51369,7 +51105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.790443038592371</v>
+        <v>1.778076509270608</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.999689130468937</v>
@@ -51458,7 +51194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.785099619166523</v>
+        <v>1.773539792171496</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.792682581892552</v>
@@ -51547,7 +51283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.784784031696672</v>
+        <v>1.771109951857711</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.966639183399084</v>
@@ -51636,7 +51372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.783131678537003</v>
+        <v>1.774496278626554</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.044534965475305</v>
@@ -51725,7 +51461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.778998128545685</v>
+        <v>1.771313033975597</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.841336442078334</v>
@@ -51814,7 +51550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.775629911437842</v>
+        <v>1.771268595819448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.772537730868588</v>
@@ -51903,7 +51639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.77292765413634</v>
+        <v>1.770406825996424</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.862558519342333</v>
@@ -51992,7 +51728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.770223975752721</v>
+        <v>1.768452512053188</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.939451049250696</v>
@@ -52081,7 +51817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.767554513534475</v>
+        <v>1.762994150547285</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.943741716695403</v>
@@ -52170,7 +51906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.764611472469329</v>
+        <v>1.759490942355738</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.936981810282631</v>
@@ -52259,7 +51995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.752154913153013</v>
+        <v>1.751535588217062</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.800164555471001</v>
@@ -52348,7 +52084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758656942195294</v>
+        <v>1.760680789158636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.155861518980021</v>
@@ -52437,7 +52173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.773344858038739</v>
+        <v>1.780029424407541</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.715114437306682</v>
@@ -52526,7 +52262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.77267869753635</v>
+        <v>1.785801127966161</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.909148870215469</v>
@@ -52615,7 +52351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.776216839861799</v>
+        <v>1.79229667879347</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.630483295097708</v>
@@ -52704,7 +52440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.808864125768463</v>
+        <v>1.826731040294709</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.514135675208394</v>
@@ -52793,7 +52529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.811570584432869</v>
+        <v>1.828195592584826</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.977539435264986</v>
@@ -52882,7 +52618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.81485273482307</v>
+        <v>1.831756316844964</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.805674466617325</v>
@@ -52971,7 +52707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.790209928293397</v>
+        <v>1.810778057050479</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.291029574602415</v>
@@ -53060,7 +52796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.79860642795354</v>
+        <v>1.819016920988046</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.336808485637228</v>
@@ -53149,7 +52885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.801326412644047</v>
+        <v>1.822167326319245</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.304551653945873</v>
@@ -53238,7 +52974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.80468910364694</v>
+        <v>1.827117955583101</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.68003517182043</v>
@@ -53327,7 +53063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.808037980806593</v>
+        <v>1.829205102379519</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.447669995330719</v>
@@ -53416,7 +53152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.813214414336529</v>
+        <v>1.839568051059023</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.730045577735984</v>
@@ -53505,7 +53241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.807564760137305</v>
+        <v>1.833352421841886</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.083570187330867</v>
@@ -53594,7 +53330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.817743617064913</v>
+        <v>1.835997013802033</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.654940649216726</v>
@@ -53683,7 +53419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.818819718601504</v>
+        <v>1.835410989590372</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.70171615322651</v>
@@ -53772,7 +53508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.819322456184147</v>
+        <v>1.833197637256369</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.828136443040796</v>
@@ -53861,7 +53597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.821319386277281</v>
+        <v>1.834918772353065</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.529258776510681</v>
@@ -53950,7 +53686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.830432647006921</v>
+        <v>1.839696070094794</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.724010767816145</v>
@@ -54039,7 +53775,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.833441536972019</v>
+        <v>1.839859683547129</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.19274248746506</v>
@@ -54128,7 +53864,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.828903313904696</v>
+        <v>1.832611160732492</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.463117776242779</v>
@@ -54217,7 +53953,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.833901692888946</v>
+        <v>1.833787748244722</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.849450213406506</v>
@@ -54306,7 +54042,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.842140050097856</v>
+        <v>1.840859289508577</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.716753497726891</v>
@@ -54395,7 +54131,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.838458455828838</v>
+        <v>1.833097189616297</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.820987588808995</v>
@@ -54484,7 +54220,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.835999120364922</v>
+        <v>1.827797692155982</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.59092116552788</v>
@@ -54573,7 +54309,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.81608815972475</v>
+        <v>1.807237807311658</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.436085826779969</v>
@@ -54662,7 +54398,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.804078195129685</v>
+        <v>1.79676072323288</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.31832385888571</v>
@@ -54751,7 +54487,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.793970940973062</v>
+        <v>1.789921678464226</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.080695752047513</v>
@@ -54840,7 +54576,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.805951645901287</v>
+        <v>1.800297930378837</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.383785751076597</v>
@@ -54929,7 +54665,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.811587700982185</v>
+        <v>1.813643023772166</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.10069569297689</v>
@@ -55018,7 +54754,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.807426597765095</v>
+        <v>1.805965574136343</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.994553974957059</v>
@@ -55107,7 +54843,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.807236104668392</v>
+        <v>1.805446593518338</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.017777482260892</v>
@@ -55196,7 +54932,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.804021915585263</v>
+        <v>1.807374560327447</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.03258294290807</v>
@@ -55285,7 +55021,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.799486894721283</v>
+        <v>1.80211556583683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.038040561055329</v>
@@ -55374,7 +55110,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.778859749369551</v>
+        <v>1.782099278042695</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.990977211788414</v>
@@ -55463,7 +55199,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.777221101256447</v>
+        <v>1.784859976756952</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.108917213603581</v>
@@ -55552,7 +55288,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.779869273789055</v>
+        <v>1.789466317107448</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.986250165750843</v>
@@ -55641,7 +55377,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.795306017593681</v>
+        <v>1.801535294978681</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.918975233620078</v>
@@ -55730,7 +55466,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.809185134312634</v>
+        <v>1.815105759162209</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.921888073369479</v>
@@ -55819,7 +55555,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.808025441312928</v>
+        <v>1.812917748531375</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.428314928034341</v>
@@ -55908,7 +55644,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.837467535931937</v>
+        <v>1.842550295060653</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.995704812700168</v>
@@ -55997,7 +55733,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.857343714782926</v>
+        <v>1.857778640909052</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.327735863324922</v>
@@ -56086,7 +55822,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.856159091146627</v>
+        <v>1.851754494886015</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.045309686146153</v>
@@ -56175,7 +55911,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.856246651211524</v>
+        <v>1.851311798044667</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.137302460271256</v>
@@ -56264,7 +56000,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.845799640781781</v>
+        <v>1.837876423853692</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.220047302412494</v>
@@ -56353,7 +56089,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.844767868636689</v>
+        <v>1.841101627188176</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.967640333939778</v>
@@ -56442,7 +56178,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.845593457441482</v>
+        <v>1.841690384510963</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.999822870471292</v>
@@ -56531,7 +56267,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.850474966590181</v>
+        <v>1.845893229992398</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.122573675798726</v>
@@ -56620,7 +56356,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.859549563857381</v>
+        <v>1.854312442997271</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.80184089178077</v>
@@ -56709,7 +56445,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.871388825951713</v>
+        <v>1.874461629458506</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.008040278022746</v>
@@ -56798,7 +56534,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.879981995727334</v>
+        <v>1.878545266094966</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.631373620983138</v>
@@ -56887,7 +56623,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.882108584320074</v>
+        <v>1.877596858399394</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.51044921482654</v>
@@ -56976,7 +56712,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.869967489445798</v>
+        <v>1.869850505896676</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.156306872606412</v>
@@ -57065,7 +56801,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.867013756208163</v>
+        <v>1.874313685214185</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.551432958398097</v>
@@ -57154,7 +56890,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.865789143428925</v>
+        <v>1.86885600541641</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.357533026072669</v>
@@ -57243,7 +56979,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.862293569463255</v>
+        <v>1.862846923925772</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.355076703731925</v>
@@ -57332,7 +57068,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.856483290231465</v>
+        <v>1.858107626315625</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.168406190076927</v>
